--- a/en/Batch-Development-Assistance/Job_Execution_Shell_Script_Autogeneration_Settings.xlsx
+++ b/en/Batch-Development-Assistance/Job_Execution_Shell_Script_Autogeneration_Settings.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAD13A9-58A6-488A-90D9-B7DB4E687E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A66907-E0E9-46FA-B3A6-2396CFF7471B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10560" windowWidth="38400" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="4995" windowWidth="22290" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Writing instructions &amp; samples" sheetId="7" r:id="rId1"/>
-    <sheet name="都度起動バッチ" sheetId="1" r:id="rId2"/>
-    <sheet name="常駐バッチ" sheetId="2" r:id="rId3"/>
-    <sheet name="メッセージ同期応答" sheetId="3" r:id="rId4"/>
-    <sheet name="メッセージ無応答-仕向け" sheetId="4" r:id="rId5"/>
-    <sheet name="メッセージ無応答-被仕向け" sheetId="5" r:id="rId6"/>
-    <sheet name="メール送信" sheetId="6" r:id="rId7"/>
-    <sheet name="ファイル移動・コピー" sheetId="9" r:id="rId8"/>
-    <sheet name="ファイルバックアップ" sheetId="10" r:id="rId9"/>
-    <sheet name="ファイル削除" sheetId="11" r:id="rId10"/>
-    <sheet name="ファイル解凍" sheetId="12" r:id="rId11"/>
-    <sheet name="ファイル圧縮" sheetId="13" r:id="rId12"/>
-    <sheet name="ファイル暗号化復号" sheetId="14" r:id="rId13"/>
-    <sheet name="ファイル送信" sheetId="15" r:id="rId14"/>
-    <sheet name="ファイル受信" sheetId="16" r:id="rId15"/>
+    <sheet name="On-demand batches" sheetId="1" r:id="rId2"/>
+    <sheet name="Resident batches" sheetId="2" r:id="rId3"/>
+    <sheet name="Synchronous messaging process" sheetId="3" r:id="rId4"/>
+    <sheet name="Asynchronous message  (sending)" sheetId="4" r:id="rId5"/>
+    <sheet name="Asynchronous message(receiving)" sheetId="5" r:id="rId6"/>
+    <sheet name="Sending emails" sheetId="6" r:id="rId7"/>
+    <sheet name="File transfer and copying" sheetId="9" r:id="rId8"/>
+    <sheet name="File backups" sheetId="10" r:id="rId9"/>
+    <sheet name="File deletions" sheetId="11" r:id="rId10"/>
+    <sheet name="File unzipping" sheetId="12" r:id="rId11"/>
+    <sheet name="File zipping" sheetId="13" r:id="rId12"/>
+    <sheet name="File encryption and decryption" sheetId="14" r:id="rId13"/>
+    <sheet name="Sending files" sheetId="15" r:id="rId14"/>
+    <sheet name="Receiving files" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
@@ -935,9 +935,6 @@
     <t xml:space="preserve">        The following options need to be specified for all process architectures.</t>
   </si>
   <si>
-    <t>Synchronous messaging process architecture</t>
-  </si>
-  <si>
     <t>process architecture</t>
   </si>
   <si>
@@ -1022,6 +1019,10 @@
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Synchronous messaging process architecture</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11743,10 +11744,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -12066,280 +12063,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H15" dT="2020-06-19T05:53:12.07" personId="{00000000-0000-0000-0000-000000000000}" id="{2B2AD58D-DA0B-4714-A1E9-529DA761E8AF}">
-    <text>TIS世古
-都度起動バッチについてこの箇所は「ad-hoc startup batches」となっています。
-他の箇所ではでは「on-demand batch」と訳して頂いているので、合わせていただきたいです。</text>
-  </threadedComment>
-  <threadedComment ref="H15" dT="2020-07-09T08:12:18.19" personId="{00000000-0000-0000-0000-000000000000}" id="{24EF14FB-19CA-470E-B6DE-E6A105AF5E7C}" parentId="{2B2AD58D-DA0B-4714-A1E9-529DA761E8AF}">
-    <text>申し訳ございません。修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="H25" dT="2020-06-19T07:28:15.14" personId="{00000000-0000-0000-0000-000000000000}" id="{6E508C0F-25ED-4CC1-8B38-15821B3D82F6}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・business-date-default-segment:下記を参照
-        [Nablarch Application Framework解説書]
-          -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchが提供するライブラリ] -&gt; [日付管理]
-            -&gt; [業務日付管理機能を使うための設定を行う]</text>
-  </threadedComment>
-  <threadedComment ref="H25" dT="2020-07-10T01:30:00.12" personId="{00000000-0000-0000-0000-000000000000}" id="{2D959938-6229-460A-AA0A-02ADF36A3A84}" parentId="{6E508C0F-25ED-4CC1-8B38-15821B3D82F6}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="H34" dT="2020-06-19T07:29:06.17" personId="{00000000-0000-0000-0000-000000000000}" id="{78221228-AF4B-4A7F-A385-3C088943718F}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・threadCount:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
-            -&gt; [スタンドアローン型アプリケーション共通ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]
-              -&gt; [スレッド数を指定する]</text>
-  </threadedComment>
-  <threadedComment ref="H34" dT="2020-07-10T03:48:16.29" personId="{00000000-0000-0000-0000-000000000000}" id="{4DE59B8E-3D4E-4B7C-8641-BB2DFDAA6137}" parentId="{78221228-AF4B-4A7F-A385-3C088943718F}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="H41" dT="2020-06-19T07:30:07.89" personId="{00000000-0000-0000-0000-000000000000}" id="{B253880A-B0D8-4D1A-848C-BEE34F321EE4}">
-    <text>TIS世古
-誠に申し訳ないのですが、、原文に間違いがありました。
-以下を訳してほしいです。
-    ・commitInterval:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
-            -&gt; [バッチアプリケーション専用ハンドラ] -&gt; [トランザクションループ制御ハンドラ]
-              -&gt; [コミット間隔を指定する]</text>
-  </threadedComment>
-  <threadedComment ref="H41" dT="2020-07-10T03:55:22.16" personId="{00000000-0000-0000-0000-000000000000}" id="{3E9C2D4B-EA3E-44B7-ABDB-453638011B29}" parentId="{B253880A-B0D8-4D1A-848C-BEE34F321EE4}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="H47" dT="2020-06-19T07:30:59.97" personId="{00000000-0000-0000-0000-000000000000}" id="{DB7B2285-A265-4E5D-BD26-51013EC2B2BE}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・maxCount:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
-            -&gt; [スタンドアローン型アプリケーション共通ハンドラ] -&gt; [データリードハンドラ]
-              -&gt; [最大処理件数の設定]</text>
-  </threadedComment>
-  <threadedComment ref="H47" dT="2020-07-10T03:58:41.55" personId="{00000000-0000-0000-0000-000000000000}" id="{5BB84A0C-F0C3-45B5-9B7A-5B8715853B1C}" parentId="{DB7B2285-A265-4E5D-BD26-51013EC2B2BE}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H15" dT="2020-06-19T05:53:31.20" personId="{00000000-0000-0000-0000-000000000000}" id="{95C94591-71B8-4C46-AFD4-CC2A301CC341}">
-    <text>TIS世古
-常駐バッチについてこの箇所は「permanent batches」となっています。
-他の箇所ではでは「resident batches」と訳して頂いているので、合わせていただきたいです。</text>
-  </threadedComment>
-  <threadedComment ref="H15" dT="2020-07-10T03:59:11.53" personId="{00000000-0000-0000-0000-000000000000}" id="{9C9594C3-A664-4D35-B0F1-7F87E03FDFD5}" parentId="{95C94591-71B8-4C46-AFD4-CC2A301CC341}">
-    <text>申し訳ございません。修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="H27" dT="2020-06-19T07:32:03.37" personId="{00000000-0000-0000-0000-000000000000}" id="{D5B62EFB-CE9B-4F12-BE99-CB3341F8630D}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・business-date-default-segment:下記を参照
-        [Nablarch Application Framework解説書]
-          -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchが提供するライブラリ] -&gt; [日付管理]
-            -&gt; [業務日付管理機能を使うための設定を行う]</text>
-  </threadedComment>
-  <threadedComment ref="H27" dT="2020-07-10T04:08:07.24" personId="{00000000-0000-0000-0000-000000000000}" id="{F8D2C74B-0C57-4A18-8D03-7E503651DB0A}" parentId="{D5B62EFB-CE9B-4F12-BE99-CB3341F8630D}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="H33" dT="2020-06-19T07:32:50.61" personId="{00000000-0000-0000-0000-000000000000}" id="{4F01CF74-3335-4151-AEA4-87B27C759222}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・threadCount:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
-            -&gt; [スタンドアローン型アプリケーション共通ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]
-              -&gt; [スレッド数を指定する]</text>
-  </threadedComment>
-  <threadedComment ref="H33" dT="2020-07-10T04:15:26.50" personId="{00000000-0000-0000-0000-000000000000}" id="{828EDA6F-4630-4696-BBB7-124B345F450B}" parentId="{4F01CF74-3335-4151-AEA4-87B27C759222}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="H41" dT="2020-06-19T07:33:44.02" personId="{00000000-0000-0000-0000-000000000000}" id="{7EDB0823-9C3B-43E4-8E36-AD8B0F397789}">
-    <text>TIS世古
-誠に申し訳ないのですが、、原文に間違いがありました。
-以下を訳してほしいです。
-    ・dataWatchInterval:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
-            -&gt; [バッチアプリケーション専用ハンドラ] -&gt; [プロセス常駐化ハンドラ]
-              -&gt; [データの監視間隔を設定する]</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G28" dT="2020-06-19T07:39:01.16" personId="{00000000-0000-0000-0000-000000000000}" id="{6DDCFA5D-F5BA-4595-9A8E-30801C14CDC3}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・threadCount:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
-            -&gt; [スタンドアローン型アプリケーション共通ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]
-              -&gt; [スレッド数を指定する]</text>
-  </threadedComment>
-  <threadedComment ref="G28" dT="2020-07-10T04:19:39.27" personId="{00000000-0000-0000-0000-000000000000}" id="{2C1970B8-0729-45B7-B8BC-7018FE172BD5}" parentId="{6DDCFA5D-F5BA-4595-9A8E-30801C14CDC3}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="G34" dT="2020-06-19T07:39:35.53" personId="{00000000-0000-0000-0000-000000000000}" id="{48499EF5-857B-42B6-AF0F-88098154B183}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・defaultTimeToLive:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
-            -&gt; [MOMメッセージング専用ハンドラ] -&gt; [メッセージングコンテキスト管理ハンドラ]
-              -&gt; [MQの接続先の設定を行う] -&gt; [MessagingProvider] -&gt; [JmsMessagingProvider]</text>
-  </threadedComment>
-  <threadedComment ref="G34" dT="2020-07-10T04:22:23.51" personId="{00000000-0000-0000-0000-000000000000}" id="{1A632442-1CB8-4571-8296-EA70698020DD}" parentId="{48499EF5-857B-42B6-AF0F-88098154B183}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="G40" dT="2020-06-19T07:41:02.21" personId="{00000000-0000-0000-0000-000000000000}" id="{C27A8888-6D4E-422E-91BD-890ECD8576F9}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・receiveQueueName:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [メッセージング編]
-            -&gt; [MOMによるメッセージング] -&gt; [アーキテクチャ概要]
-              -&gt; [MOMメッセージングで使用するデータリーダ]
-              -&gt; [MessageReader (MQから電文の読み込み)]</text>
-  </threadedComment>
-  <threadedComment ref="G40" dT="2020-07-10T04:26:20.87" personId="{00000000-0000-0000-0000-000000000000}" id="{A6BA0E12-2196-4D66-BD05-ED7FAAB5366F}" parentId="{C27A8888-6D4E-422E-91BD-890ECD8576F9}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="G46" dT="2020-06-19T07:43:19.54" personId="{00000000-0000-0000-0000-000000000000}" id="{CE604119-F1A7-4593-A082-A05B915D46AF}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・readTimeout:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [メッセージング編]
-            -&gt; [MOMによるメッセージング] -&gt; [アーキテクチャ概要]
-              -&gt; [MOMメッセージングで使用するデータリーダ]
-              -&gt; [MessageReader (MQから電文の読み込み)]</text>
-  </threadedComment>
-  <threadedComment ref="G46" dT="2020-07-10T04:30:31.99" personId="{00000000-0000-0000-0000-000000000000}" id="{0DAF8F5A-3DB5-4A66-9E38-C735DD75733E}" parentId="{CE604119-F1A7-4593-A082-A05B915D46AF}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G27" dT="2020-06-19T07:44:28.78" personId="{00000000-0000-0000-0000-000000000000}" id="{F488F8FF-F15D-46EA-9A95-2B2EA7E568E3}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・sendQueueName:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchが提供するライブラリ]
-            -&gt; [システム間メッセージング] -&gt; [MOMメッセージング]
-              -&gt; [同期応答でメッセージを送信する(同期応答メッセージ送信)]
-              -&gt; [MessageSenderの設定]-&gt;[MessageSenderSettings ]</text>
-  </threadedComment>
-  <threadedComment ref="G27" dT="2020-07-10T04:34:57.83" personId="{00000000-0000-0000-0000-000000000000}" id="{22040C71-3B58-4D02-A782-8EEA0DAB5E01}" parentId="{F488F8FF-F15D-46EA-9A95-2B2EA7E568E3}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H27" dT="2020-06-19T07:46:16.49" personId="{00000000-0000-0000-0000-000000000000}" id="{89DEF916-B3C6-434E-96F3-3E01724846B0}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・threadCount:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
-            -&gt; [スタンドアローン型アプリケーション共通ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]
-              -&gt; [スレッド数を指定する]</text>
-  </threadedComment>
-  <threadedComment ref="H27" dT="2020-07-10T04:44:05.85" personId="{00000000-0000-0000-0000-000000000000}" id="{E7F2A2AD-B1CE-4D52-A2CE-7CDCE3BC9621}" parentId="{89DEF916-B3C6-434E-96F3-3E01724846B0}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="H34" dT="2020-06-19T07:46:52.96" personId="{00000000-0000-0000-0000-000000000000}" id="{E6051FE1-9D4A-40AA-83B0-BF759BCC07A0}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・defaultTimeToLive:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
-            -&gt; [MOMメッセージング専用ハンドラ] -&gt; [メッセージングコンテキスト管理ハンドラ]
-              -&gt; [MQの接続先の設定を行う]</text>
-  </threadedComment>
-  <threadedComment ref="H34" dT="2020-07-10T04:47:40.51" personId="{00000000-0000-0000-0000-000000000000}" id="{7CFD9DE9-BDDE-4CCB-9CC5-0B48E1BF10D2}" parentId="{E6051FE1-9D4A-40AA-83B0-BF759BCC07A0}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="H41" dT="2020-06-19T07:48:08.54" personId="{00000000-0000-0000-0000-000000000000}" id="{0FDE4431-6240-4FC5-BF45-455333D04252}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・receiveQueueName:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [メッセージング編]
-            -&gt; [MOMによるメッセージング] -&gt; [アーキテクチャ概要]
-              -&gt; [MOMメッセージングで使用するデータリーダ]
-              -&gt; [MessageReader (MQから電文の読み込み)]</text>
-  </threadedComment>
-  <threadedComment ref="H41" dT="2020-07-10T04:49:23.55" personId="{00000000-0000-0000-0000-000000000000}" id="{B618A56F-3079-464C-9B61-FC785EB0128D}" parentId="{0FDE4431-6240-4FC5-BF45-455333D04252}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="H47" dT="2020-06-19T07:48:58.32" personId="{00000000-0000-0000-0000-000000000000}" id="{4ABFD5BE-C33C-4C0D-8DD4-95D4BAE090DD}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・poisonQueueName:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
-            -&gt; [MOMメッセージング専用ハンドラ] -&gt; [メッセージングコンテキスト管理ハンドラ]
-              -&gt; [MQの接続先の設定を行う] -&gt; [MessagingProvider] -&gt; [JmsMessagingProvider]</text>
-  </threadedComment>
-  <threadedComment ref="H47" dT="2020-07-10T04:51:01.71" personId="{00000000-0000-0000-0000-000000000000}" id="{BBBAC56F-EA4B-4DFD-B0E4-CD8EF9EA4B50}" parentId="{4ABFD5BE-C33C-4C0D-8DD4-95D4BAE090DD}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="H53" dT="2020-06-19T07:49:27.98" personId="{00000000-0000-0000-0000-000000000000}" id="{5DDB42D7-182F-4C2C-9BEA-FD19275625D2}">
-    <text>TIS世古
-誠に申し訳ないのですが、原文に間違いがありました。
-以下を訳してほしいです。
-    ・readTimeou:下記を参照
-        [Nablarch Application Framework解説書]
-　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [メッセージング編]
-            -&gt; [MOMによるメッセージング] -&gt; [アーキテクチャ概要]
-              -&gt; [MOMメッセージングで使用するデータリーダ]
-              -&gt; [MessageReader (MQから電文の読み込み)]</text>
-  </threadedComment>
-  <threadedComment ref="H53" dT="2020-07-10T04:52:23.44" personId="{00000000-0000-0000-0000-000000000000}" id="{39E0370C-78E5-4FA3-A209-F12EE90EDD08}" parentId="{5DDB42D7-182F-4C2C-9BEA-FD19275625D2}">
-    <text>修正済みの原文の訳に修正致しました。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G20" dT="2020-06-19T06:05:54.54" personId="{00000000-0000-0000-0000-000000000000}" id="{563E8447-85FC-433D-972D-814507727742}">
-    <text>TIS世古
-メール送信処理が、「start processes for incoming asynchronous messages」となっています。恐らく他の箇所のからコピーした状態になっています。</text>
-  </threadedComment>
-  <threadedComment ref="G20" dT="2020-07-10T04:55:26.66" personId="{00000000-0000-0000-0000-000000000000}" id="{526FFCBD-1082-45F7-9108-B7E3A55950BC}" parentId="{563E8447-85FC-433D-972D-814507727742}">
-    <text>申し訳ございません。修正致しました。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet10"/>
@@ -12386,10 +12109,10 @@
         <v>98</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -12397,12 +12120,12 @@
       <c r="I5" s="38"/>
       <c r="J5" s="39"/>
       <c r="K5" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="40"/>
       <c r="N5" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="39"/>
@@ -12436,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N6" s="44"/>
       <c r="O6" s="50"/>
@@ -12742,7 +12465,7 @@
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" s="70"/>
       <c r="C36" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -12784,7 +12507,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="70"/>
       <c r="C39" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -12868,7 +12591,7 @@
     <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" s="70"/>
       <c r="C45" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -13022,7 +12745,7 @@
     <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="70"/>
       <c r="C56" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -13064,7 +12787,7 @@
     <row r="59" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B59" s="70"/>
       <c r="C59" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -13507,7 +13230,7 @@
         <v>179</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="59"/>
     </row>
@@ -13589,7 +13312,7 @@
         <v>163</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="59"/>
@@ -13604,7 +13327,7 @@
         <v>184</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
@@ -13681,7 +13404,7 @@
         <v>187</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -13700,7 +13423,7 @@
         <v>191</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -13783,7 +13506,7 @@
         <v>159</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -13810,7 +13533,7 @@
         <v>198</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -13901,7 +13624,7 @@
         <v>163</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -14019,7 +13742,7 @@
         <v>210</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -14142,21 +13865,21 @@
         <v>154</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="40"/>
       <c r="L5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M5" s="40"/>
     </row>
@@ -14183,7 +13906,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
@@ -14296,20 +14019,20 @@
         <v>158</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="59"/>
       <c r="K5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L5" s="40"/>
     </row>
@@ -14333,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K6" s="44"/>
       <c r="L6" s="54"/>
@@ -14415,7 +14138,7 @@
   <sheetData>
     <row r="1" spans="2:13" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
@@ -14430,21 +14153,21 @@
         <v>159</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="59"/>
       <c r="L5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M5" s="40"/>
     </row>
@@ -14471,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
@@ -14555,7 +14278,7 @@
   <sheetData>
     <row r="1" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
@@ -14569,19 +14292,19 @@
         <v>162</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
       <c r="J5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K5" s="40"/>
     </row>
@@ -14602,7 +14325,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="54"/>
@@ -14612,7 +14335,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -14681,7 +14404,7 @@
   <sheetData>
     <row r="1" spans="2:14" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
@@ -14696,22 +14419,22 @@
         <v>163</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="59"/>
       <c r="M5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N5" s="40"/>
     </row>
@@ -14741,7 +14464,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M6" s="44"/>
       <c r="N6" s="54"/>
@@ -14751,7 +14474,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -14840,18 +14563,18 @@
         <v>163</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="59"/>
       <c r="I5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J5" s="40"/>
     </row>
@@ -14867,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="54"/>
@@ -14955,7 +14678,7 @@
         <v>159</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -14982,7 +14705,7 @@
         <v>169</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -15071,7 +14794,7 @@
         <v>159</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="59"/>

--- a/en/Batch-Development-Assistance/Job_Execution_Shell_Script_Autogeneration_Settings.xlsx
+++ b/en/Batch-Development-Assistance/Job_Execution_Shell_Script_Autogeneration_Settings.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A66907-E0E9-46FA-B3A6-2396CFF7471B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA449C05-25E4-47F3-9700-B80ACC595255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="4995" windowWidth="22290" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="23220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Writing instructions &amp; samples" sheetId="7" r:id="rId1"/>
@@ -24,8 +24,52 @@
     <sheet name="Sending files" sheetId="15" r:id="rId14"/>
     <sheet name="Receiving files" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="C79" authorId="0" shapeId="0" xr:uid="{18457864-3331-4C9E-AD7E-6F09A8215745}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>Y:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve"> can be used
+N: cannot be used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -247,10 +291,6 @@
   </si>
   <si>
     <t xml:space="preserve">        ・ userId</t>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>'</t>
@@ -651,10 +691,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>✓</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Job ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1024,13 +1060,19 @@
   <si>
     <t>Synchronous messaging process architecture</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1098,6 +1140,19 @@
       <sz val="8"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -12064,13 +12119,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:P84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
@@ -12087,32 +12142,32 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:16" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:16" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="11.25" thickBot="1">
       <c r="B4" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="12" thickTop="1" thickBot="1">
       <c r="B5" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>98</v>
-      </c>
       <c r="D5" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>232</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>234</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -12120,17 +12175,17 @@
       <c r="I5" s="38"/>
       <c r="J5" s="39"/>
       <c r="K5" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="40"/>
       <c r="N5" s="37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="39"/>
     </row>
-    <row r="6" spans="2:16" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" ht="12" thickTop="1" thickBot="1">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -12159,21 +12214,21 @@
         <v>0</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N6" s="44"/>
       <c r="O6" s="50"/>
       <c r="P6" s="51"/>
     </row>
-    <row r="7" spans="2:16" ht="32.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:16" ht="32.25" thickTop="1">
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
@@ -12188,7 +12243,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="17" t="s">
@@ -12210,12 +12265,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" ht="11.25" thickBot="1">
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="19">
@@ -12241,12 +12296,12 @@
       <c r="O8" s="31"/>
       <c r="P8" s="32"/>
     </row>
-    <row r="9" spans="2:16" s="1" customFormat="1" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:16" s="1" customFormat="1" ht="11.25" thickTop="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11">
       <c r="B20" s="68"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -12258,10 +12313,10 @@
       <c r="J20" s="10"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:11" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="17.25">
       <c r="B21" s="70"/>
       <c r="C21" s="71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -12272,7 +12327,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="72"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11">
       <c r="B22" s="70"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -12284,10 +12339,10 @@
       <c r="J22" s="1"/>
       <c r="K22" s="72"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11">
       <c r="B23" s="70"/>
       <c r="C23" s="73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -12298,10 +12353,10 @@
       <c r="J23" s="1"/>
       <c r="K23" s="72"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11">
       <c r="B24" s="70"/>
       <c r="C24" s="73" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -12312,10 +12367,10 @@
       <c r="J24" s="1"/>
       <c r="K24" s="72"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11">
       <c r="B25" s="70"/>
       <c r="C25" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -12326,7 +12381,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="72"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11">
       <c r="B26" s="70"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -12338,10 +12393,10 @@
       <c r="J26" s="1"/>
       <c r="K26" s="72"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11">
       <c r="B27" s="70"/>
       <c r="C27" s="74" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -12352,10 +12407,10 @@
       <c r="J27" s="1"/>
       <c r="K27" s="72"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11">
       <c r="B28" s="70"/>
       <c r="C28" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -12366,10 +12421,10 @@
       <c r="J28" s="1"/>
       <c r="K28" s="72"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11">
       <c r="B29" s="70"/>
       <c r="C29" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -12380,7 +12435,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="72"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11">
       <c r="B30" s="70"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -12392,10 +12447,10 @@
       <c r="J30" s="1"/>
       <c r="K30" s="72"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11">
       <c r="B31" s="70"/>
       <c r="C31" s="74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -12406,10 +12461,10 @@
       <c r="J31" s="1"/>
       <c r="K31" s="72"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11">
       <c r="B32" s="70"/>
       <c r="C32" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -12420,10 +12475,10 @@
       <c r="J32" s="1"/>
       <c r="K32" s="72"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:11">
       <c r="B33" s="70"/>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -12434,10 +12489,10 @@
       <c r="J33" s="1"/>
       <c r="K33" s="72"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11">
       <c r="B34" s="70"/>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -12448,10 +12503,10 @@
       <c r="J34" s="1"/>
       <c r="K34" s="72"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11">
       <c r="B35" s="70"/>
       <c r="C35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -12462,10 +12517,10 @@
       <c r="J35" s="1"/>
       <c r="K35" s="72"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:11">
       <c r="B36" s="70"/>
       <c r="C36" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -12476,10 +12531,10 @@
       <c r="J36" s="1"/>
       <c r="K36" s="72"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:11">
       <c r="B37" s="70"/>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -12490,10 +12545,10 @@
       <c r="J37" s="1"/>
       <c r="K37" s="72"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:11">
       <c r="B38" s="70"/>
       <c r="C38" s="81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -12504,10 +12559,10 @@
       <c r="J38" s="1"/>
       <c r="K38" s="72"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11">
       <c r="B39" s="70"/>
       <c r="C39" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -12518,10 +12573,10 @@
       <c r="J39" s="1"/>
       <c r="K39" s="72"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:11">
       <c r="B40" s="70"/>
       <c r="C40" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -12532,10 +12587,10 @@
       <c r="J40" s="1"/>
       <c r="K40" s="72"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:11">
       <c r="B41" s="70"/>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -12546,10 +12601,10 @@
       <c r="J41" s="1"/>
       <c r="K41" s="72"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:11">
       <c r="B42" s="70"/>
       <c r="C42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -12560,10 +12615,10 @@
       <c r="J42" s="1"/>
       <c r="K42" s="72"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:11">
       <c r="B43" s="70"/>
       <c r="C43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -12574,10 +12629,10 @@
       <c r="J43" s="1"/>
       <c r="K43" s="72"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:11">
       <c r="B44" s="70"/>
       <c r="C44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -12588,10 +12643,10 @@
       <c r="J44" s="1"/>
       <c r="K44" s="72"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:11">
       <c r="B45" s="70"/>
       <c r="C45" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -12602,10 +12657,10 @@
       <c r="J45" s="1"/>
       <c r="K45" s="72"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:11">
       <c r="B46" s="70"/>
       <c r="C46" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -12616,10 +12671,10 @@
       <c r="J46" s="1"/>
       <c r="K46" s="72"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:11">
       <c r="B47" s="70"/>
       <c r="C47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -12630,10 +12685,10 @@
       <c r="J47" s="1"/>
       <c r="K47" s="72"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:11">
       <c r="B48" s="70"/>
       <c r="C48" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -12644,10 +12699,10 @@
       <c r="J48" s="1"/>
       <c r="K48" s="72"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11">
       <c r="B49" s="70"/>
       <c r="C49" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -12658,7 +12713,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="72"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11">
       <c r="B50" s="70"/>
       <c r="C50" s="1" t="s">
         <v>55</v>
@@ -12672,7 +12727,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="72"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11">
       <c r="B51" s="70"/>
       <c r="C51" s="1" t="s">
         <v>56</v>
@@ -12686,10 +12741,10 @@
       <c r="J51" s="1"/>
       <c r="K51" s="72"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11">
       <c r="B52" s="70"/>
       <c r="C52" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -12700,10 +12755,10 @@
       <c r="J52" s="1"/>
       <c r="K52" s="72"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11">
       <c r="B53" s="70"/>
       <c r="C53" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -12714,10 +12769,10 @@
       <c r="J53" s="1"/>
       <c r="K53" s="72"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11">
       <c r="B54" s="70"/>
       <c r="C54" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -12728,10 +12783,10 @@
       <c r="J54" s="1"/>
       <c r="K54" s="72"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11">
       <c r="B55" s="70"/>
       <c r="C55" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -12742,10 +12797,10 @@
       <c r="J55" s="1"/>
       <c r="K55" s="72"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11">
       <c r="B56" s="70"/>
       <c r="C56" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -12756,10 +12811,10 @@
       <c r="J56" s="1"/>
       <c r="K56" s="72"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11">
       <c r="B57" s="70"/>
       <c r="C57" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -12770,10 +12825,10 @@
       <c r="J57" s="1"/>
       <c r="K57" s="72"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11">
       <c r="B58" s="70"/>
       <c r="C58" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -12784,10 +12839,10 @@
       <c r="J58" s="1"/>
       <c r="K58" s="72"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11">
       <c r="B59" s="70"/>
       <c r="C59" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -12798,10 +12853,10 @@
       <c r="J59" s="1"/>
       <c r="K59" s="72"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11">
       <c r="B60" s="70"/>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -12812,10 +12867,10 @@
       <c r="J60" s="1"/>
       <c r="K60" s="72"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11">
       <c r="B61" s="70"/>
       <c r="C61" s="81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -12826,10 +12881,10 @@
       <c r="J61" s="1"/>
       <c r="K61" s="72"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11">
       <c r="B62" s="70"/>
       <c r="C62" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -12840,7 +12895,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="72"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11">
       <c r="B63" s="70"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -12852,10 +12907,10 @@
       <c r="J63" s="1"/>
       <c r="K63" s="72"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:11">
       <c r="B64" s="70"/>
       <c r="C64" s="74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -12866,10 +12921,10 @@
       <c r="J64" s="1"/>
       <c r="K64" s="72"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:11">
       <c r="B65" s="70"/>
       <c r="C65" s="81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -12880,10 +12935,10 @@
       <c r="J65" s="1"/>
       <c r="K65" s="72"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:11">
       <c r="B66" s="70"/>
       <c r="C66" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -12894,10 +12949,10 @@
       <c r="J66" s="1"/>
       <c r="K66" s="72"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:11">
       <c r="B67" s="70"/>
       <c r="C67" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -12908,10 +12963,10 @@
       <c r="J67" s="1"/>
       <c r="K67" s="72"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:11">
       <c r="B68" s="70"/>
       <c r="C68" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -12922,10 +12977,10 @@
       <c r="J68" s="1"/>
       <c r="K68" s="72"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:11">
       <c r="B69" s="70"/>
       <c r="C69" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -12936,10 +12991,10 @@
       <c r="J69" s="1"/>
       <c r="K69" s="72"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:11">
       <c r="B70" s="70"/>
       <c r="C70" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -12950,10 +13005,10 @@
       <c r="J70" s="1"/>
       <c r="K70" s="72"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:11">
       <c r="B71" s="70"/>
       <c r="C71" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -12964,10 +13019,10 @@
       <c r="J71" s="1"/>
       <c r="K71" s="72"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:11">
       <c r="B72" s="70"/>
       <c r="C72" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -12978,10 +13033,10 @@
       <c r="J72" s="1"/>
       <c r="K72" s="72"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:11">
       <c r="B73" s="70"/>
       <c r="C73" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -12992,10 +13047,10 @@
       <c r="J73" s="1"/>
       <c r="K73" s="72"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:11">
       <c r="B74" s="70"/>
       <c r="C74" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -13006,10 +13061,10 @@
       <c r="J74" s="1"/>
       <c r="K74" s="72"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:11">
       <c r="B75" s="70"/>
       <c r="C75" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -13020,10 +13075,10 @@
       <c r="J75" s="1"/>
       <c r="K75" s="72"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:11">
       <c r="B76" s="70"/>
       <c r="C76" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -13034,7 +13089,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="72"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:11">
       <c r="B77" s="70"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -13046,10 +13101,10 @@
       <c r="J77" s="1"/>
       <c r="K77" s="72"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:11">
       <c r="B78" s="70"/>
       <c r="C78" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -13060,125 +13115,125 @@
       <c r="J78" s="1"/>
       <c r="K78" s="72"/>
     </row>
-    <row r="79" spans="2:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:11" ht="21">
       <c r="B79" s="70"/>
       <c r="C79" s="1"/>
       <c r="D79" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E79" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="F79" s="65" t="s">
+      <c r="G79" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="G79" s="82" t="s">
+      <c r="H79" s="65" t="s">
         <v>146</v>
-      </c>
-      <c r="H79" s="65" t="s">
-        <v>147</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="72"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:11">
       <c r="B80" s="70"/>
       <c r="C80" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D80" s="83" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="E80" s="64" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="F80" s="64" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="G80" s="83" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="H80" s="64" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="72"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:11">
       <c r="B81" s="70"/>
       <c r="C81" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D81" s="83" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="E81" s="64" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="F81" s="64" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="G81" s="83" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="H81" s="64" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="72"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:11">
       <c r="B82" s="70"/>
       <c r="C82" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D82" s="83" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="E82" s="83" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="F82" s="64" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="G82" s="83" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="72"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:11">
       <c r="B83" s="70"/>
       <c r="C83" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D83" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="E83" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F83" s="67" t="s">
-        <v>59</v>
-      </c>
       <c r="G83" s="67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H83" s="67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="72"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:11">
       <c r="B84" s="75"/>
       <c r="C84" s="76"/>
       <c r="D84" s="76"/>
@@ -13196,6 +13251,7 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -13206,7 +13262,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -13217,54 +13273,54 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E5" s="59"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="53" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13288,7 +13344,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -13299,62 +13355,62 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="59"/>
     </row>
-    <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="21">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13378,7 +13434,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -13391,62 +13447,62 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
       <c r="G5" s="59"/>
     </row>
-    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" ht="21">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>191</v>
-      </c>
       <c r="G6" s="85" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
@@ -13454,7 +13510,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13480,7 +13536,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -13493,20 +13549,20 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -13514,55 +13570,55 @@
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" ht="21">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="G6" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="H6" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="I6" s="85" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="79" t="s">
         <v>197</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="85" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>199</v>
       </c>
       <c r="D7" s="80">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
@@ -13572,7 +13628,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13598,7 +13654,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -13611,20 +13667,20 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>163</v>
-      </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -13632,55 +13688,55 @@
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="G6" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="H6" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="I6" s="53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="H6" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>208</v>
-      </c>
       <c r="D7" s="80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
@@ -13690,7 +13746,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13716,7 +13772,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -13729,20 +13785,20 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -13750,55 +13806,55 @@
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F6" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="H6" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="H6" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>215</v>
-      </c>
       <c r="D7" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="G7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
@@ -13808,7 +13864,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13834,7 +13890,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -13848,42 +13904,42 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="57" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:13" s="57" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" s="25"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13">
       <c r="B5" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="40"/>
       <c r="L5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M5" s="40"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -13906,17 +13962,17 @@
         <v>0</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13">
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>52</v>
@@ -13949,7 +14005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -13963,7 +14019,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13990,7 +14046,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -14002,41 +14058,41 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12">
       <c r="B5" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="59"/>
       <c r="K5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -14056,17 +14112,17 @@
         <v>0</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K6" s="44"/>
       <c r="L6" s="54"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12">
       <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="6"/>
@@ -14082,7 +14138,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -14095,7 +14151,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14121,7 +14177,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -14136,42 +14192,42 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:13" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13">
       <c r="B5" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>159</v>
-      </c>
       <c r="D5" s="87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="59"/>
       <c r="L5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M5" s="40"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -14194,17 +14250,17 @@
         <v>0</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13">
       <c r="B7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -14221,7 +14277,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -14235,7 +14291,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14262,7 +14318,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -14276,39 +14332,39 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="1"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11">
       <c r="B5" s="35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F5" s="87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
       <c r="J5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -14325,17 +14381,17 @@
         <v>33</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="54"/>
     </row>
-    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" ht="21">
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -14352,7 +14408,7 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -14364,7 +14420,7 @@
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14389,7 +14445,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -14402,43 +14458,43 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14">
       <c r="B5" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>163</v>
-      </c>
       <c r="D5" s="87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="59"/>
       <c r="M5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N5" s="40"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -14464,17 +14520,17 @@
         <v>0</v>
       </c>
       <c r="L6" s="89" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M6" s="44"/>
       <c r="N6" s="54"/>
     </row>
-    <row r="7" spans="2:14" ht="21" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" ht="21">
       <c r="B7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -14492,7 +14548,7 @@
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -14507,7 +14563,7 @@
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
     </row>
-    <row r="9" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14538,7 +14594,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -14550,35 +14606,35 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F5" s="87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="59"/>
       <c r="I5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J5" s="40"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -14590,17 +14646,17 @@
         <v>0</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="54"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="63"/>
@@ -14614,7 +14670,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -14625,7 +14681,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14652,7 +14708,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -14665,20 +14721,20 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>159</v>
-      </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -14686,46 +14742,46 @@
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" ht="21">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="53" t="s">
+      <c r="H6" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="I6" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>170</v>
-      </c>
       <c r="D7" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -14734,7 +14790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
@@ -14744,7 +14800,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14770,7 +14826,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -14781,62 +14837,62 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25">
       <c r="B1" s="56" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="59"/>
     </row>
-    <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="21">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="40" t="s">
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="85" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>177</v>
-      </c>
       <c r="D7" s="80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" s="1" customFormat="1">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>

--- a/en/Batch-Development-Assistance/Job_Execution_Shell_Script_Autogeneration_Settings.xlsx
+++ b/en/Batch-Development-Assistance/Job_Execution_Shell_Script_Autogeneration_Settings.xlsx
@@ -1,75 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA449C05-25E4-47F3-9700-B80ACC595255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8B93781-9498-43CD-87F0-B76FCCF23BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="23220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="37260" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Writing instructions &amp; samples" sheetId="7" r:id="rId1"/>
-    <sheet name="On-demand batches" sheetId="1" r:id="rId2"/>
-    <sheet name="Resident batches" sheetId="2" r:id="rId3"/>
-    <sheet name="Synchronous messaging process" sheetId="3" r:id="rId4"/>
-    <sheet name="Asynchronous message  (sending)" sheetId="4" r:id="rId5"/>
-    <sheet name="Asynchronous message(receiving)" sheetId="5" r:id="rId6"/>
-    <sheet name="Sending emails" sheetId="6" r:id="rId7"/>
-    <sheet name="File transfer and copying" sheetId="9" r:id="rId8"/>
-    <sheet name="File backups" sheetId="10" r:id="rId9"/>
-    <sheet name="File deletions" sheetId="11" r:id="rId10"/>
-    <sheet name="File unzipping" sheetId="12" r:id="rId11"/>
-    <sheet name="File zipping" sheetId="13" r:id="rId12"/>
-    <sheet name="File encryption and decryption" sheetId="14" r:id="rId13"/>
-    <sheet name="Sending files" sheetId="15" r:id="rId14"/>
-    <sheet name="Receiving files" sheetId="16" r:id="rId15"/>
+    <sheet name="都度起動バッチ" sheetId="1" r:id="rId2"/>
+    <sheet name="常駐バッチ" sheetId="2" r:id="rId3"/>
+    <sheet name="メッセージ同期応答" sheetId="3" r:id="rId4"/>
+    <sheet name="メッセージ無応答-仕向け" sheetId="4" r:id="rId5"/>
+    <sheet name="メッセージ無応答-被仕向け" sheetId="5" r:id="rId6"/>
+    <sheet name="メール送信" sheetId="6" r:id="rId7"/>
+    <sheet name="ファイル移動・コピー" sheetId="9" r:id="rId8"/>
+    <sheet name="ファイルバックアップ" sheetId="10" r:id="rId9"/>
+    <sheet name="ファイル削除" sheetId="11" r:id="rId10"/>
+    <sheet name="ファイル解凍" sheetId="12" r:id="rId11"/>
+    <sheet name="ファイル圧縮" sheetId="13" r:id="rId12"/>
+    <sheet name="ファイル暗号化復号" sheetId="14" r:id="rId13"/>
+    <sheet name="ファイル送信" sheetId="15" r:id="rId14"/>
+    <sheet name="ファイル受信" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="C79" authorId="0" shapeId="0" xr:uid="{18457864-3331-4C9E-AD7E-6F09A8215745}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>Y:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve"> can be used
-N: cannot be used</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -291,6 +247,10 @@
   </si>
   <si>
     <t xml:space="preserve">        ・ userId</t>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>'</t>
@@ -691,6 +651,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>✓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Job ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -969,6 +933,9 @@
   </si>
   <si>
     <t xml:space="preserve">        The following options need to be specified for all process architectures.</t>
+  </si>
+  <si>
+    <t>Synchronous messaging process architecture</t>
   </si>
   <si>
     <t>process architecture</t>
@@ -1056,23 +1023,13 @@
       <t>ヒキスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Synchronous messaging process architecture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1140,19 +1097,6 @@
       <sz val="8"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -11799,6 +11743,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -12118,14 +12066,288 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H15" dT="2020-06-19T05:53:12.07" personId="{00000000-0000-0000-0000-000000000000}" id="{2B2AD58D-DA0B-4714-A1E9-529DA761E8AF}">
+    <text>TIS世古
+都度起動バッチについてこの箇所は「ad-hoc startup batches」となっています。
+他の箇所ではでは「on-demand batch」と訳して頂いているので、合わせていただきたいです。</text>
+  </threadedComment>
+  <threadedComment ref="H15" dT="2020-07-09T08:12:18.19" personId="{00000000-0000-0000-0000-000000000000}" id="{24EF14FB-19CA-470E-B6DE-E6A105AF5E7C}" parentId="{2B2AD58D-DA0B-4714-A1E9-529DA761E8AF}">
+    <text>申し訳ございません。修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="H25" dT="2020-06-19T07:28:15.14" personId="{00000000-0000-0000-0000-000000000000}" id="{6E508C0F-25ED-4CC1-8B38-15821B3D82F6}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・business-date-default-segment:下記を参照
+        [Nablarch Application Framework解説書]
+          -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchが提供するライブラリ] -&gt; [日付管理]
+            -&gt; [業務日付管理機能を使うための設定を行う]</text>
+  </threadedComment>
+  <threadedComment ref="H25" dT="2020-07-10T01:30:00.12" personId="{00000000-0000-0000-0000-000000000000}" id="{2D959938-6229-460A-AA0A-02ADF36A3A84}" parentId="{6E508C0F-25ED-4CC1-8B38-15821B3D82F6}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="H34" dT="2020-06-19T07:29:06.17" personId="{00000000-0000-0000-0000-000000000000}" id="{78221228-AF4B-4A7F-A385-3C088943718F}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・threadCount:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
+            -&gt; [スタンドアローン型アプリケーション共通ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]
+              -&gt; [スレッド数を指定する]</text>
+  </threadedComment>
+  <threadedComment ref="H34" dT="2020-07-10T03:48:16.29" personId="{00000000-0000-0000-0000-000000000000}" id="{4DE59B8E-3D4E-4B7C-8641-BB2DFDAA6137}" parentId="{78221228-AF4B-4A7F-A385-3C088943718F}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="H41" dT="2020-06-19T07:30:07.89" personId="{00000000-0000-0000-0000-000000000000}" id="{B253880A-B0D8-4D1A-848C-BEE34F321EE4}">
+    <text>TIS世古
+誠に申し訳ないのですが、、原文に間違いがありました。
+以下を訳してほしいです。
+    ・commitInterval:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
+            -&gt; [バッチアプリケーション専用ハンドラ] -&gt; [トランザクションループ制御ハンドラ]
+              -&gt; [コミット間隔を指定する]</text>
+  </threadedComment>
+  <threadedComment ref="H41" dT="2020-07-10T03:55:22.16" personId="{00000000-0000-0000-0000-000000000000}" id="{3E9C2D4B-EA3E-44B7-ABDB-453638011B29}" parentId="{B253880A-B0D8-4D1A-848C-BEE34F321EE4}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="H47" dT="2020-06-19T07:30:59.97" personId="{00000000-0000-0000-0000-000000000000}" id="{DB7B2285-A265-4E5D-BD26-51013EC2B2BE}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・maxCount:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
+            -&gt; [スタンドアローン型アプリケーション共通ハンドラ] -&gt; [データリードハンドラ]
+              -&gt; [最大処理件数の設定]</text>
+  </threadedComment>
+  <threadedComment ref="H47" dT="2020-07-10T03:58:41.55" personId="{00000000-0000-0000-0000-000000000000}" id="{5BB84A0C-F0C3-45B5-9B7A-5B8715853B1C}" parentId="{DB7B2285-A265-4E5D-BD26-51013EC2B2BE}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H15" dT="2020-06-19T05:53:31.20" personId="{00000000-0000-0000-0000-000000000000}" id="{95C94591-71B8-4C46-AFD4-CC2A301CC341}">
+    <text>TIS世古
+常駐バッチについてこの箇所は「permanent batches」となっています。
+他の箇所ではでは「resident batches」と訳して頂いているので、合わせていただきたいです。</text>
+  </threadedComment>
+  <threadedComment ref="H15" dT="2020-07-10T03:59:11.53" personId="{00000000-0000-0000-0000-000000000000}" id="{9C9594C3-A664-4D35-B0F1-7F87E03FDFD5}" parentId="{95C94591-71B8-4C46-AFD4-CC2A301CC341}">
+    <text>申し訳ございません。修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="H27" dT="2020-06-19T07:32:03.37" personId="{00000000-0000-0000-0000-000000000000}" id="{D5B62EFB-CE9B-4F12-BE99-CB3341F8630D}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・business-date-default-segment:下記を参照
+        [Nablarch Application Framework解説書]
+          -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchが提供するライブラリ] -&gt; [日付管理]
+            -&gt; [業務日付管理機能を使うための設定を行う]</text>
+  </threadedComment>
+  <threadedComment ref="H27" dT="2020-07-10T04:08:07.24" personId="{00000000-0000-0000-0000-000000000000}" id="{F8D2C74B-0C57-4A18-8D03-7E503651DB0A}" parentId="{D5B62EFB-CE9B-4F12-BE99-CB3341F8630D}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="H33" dT="2020-06-19T07:32:50.61" personId="{00000000-0000-0000-0000-000000000000}" id="{4F01CF74-3335-4151-AEA4-87B27C759222}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・threadCount:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
+            -&gt; [スタンドアローン型アプリケーション共通ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]
+              -&gt; [スレッド数を指定する]</text>
+  </threadedComment>
+  <threadedComment ref="H33" dT="2020-07-10T04:15:26.50" personId="{00000000-0000-0000-0000-000000000000}" id="{828EDA6F-4630-4696-BBB7-124B345F450B}" parentId="{4F01CF74-3335-4151-AEA4-87B27C759222}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="H41" dT="2020-06-19T07:33:44.02" personId="{00000000-0000-0000-0000-000000000000}" id="{7EDB0823-9C3B-43E4-8E36-AD8B0F397789}">
+    <text>TIS世古
+誠に申し訳ないのですが、、原文に間違いがありました。
+以下を訳してほしいです。
+    ・dataWatchInterval:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
+            -&gt; [バッチアプリケーション専用ハンドラ] -&gt; [プロセス常駐化ハンドラ]
+              -&gt; [データの監視間隔を設定する]</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G28" dT="2020-06-19T07:39:01.16" personId="{00000000-0000-0000-0000-000000000000}" id="{6DDCFA5D-F5BA-4595-9A8E-30801C14CDC3}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・threadCount:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
+            -&gt; [スタンドアローン型アプリケーション共通ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]
+              -&gt; [スレッド数を指定する]</text>
+  </threadedComment>
+  <threadedComment ref="G28" dT="2020-07-10T04:19:39.27" personId="{00000000-0000-0000-0000-000000000000}" id="{2C1970B8-0729-45B7-B8BC-7018FE172BD5}" parentId="{6DDCFA5D-F5BA-4595-9A8E-30801C14CDC3}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="G34" dT="2020-06-19T07:39:35.53" personId="{00000000-0000-0000-0000-000000000000}" id="{48499EF5-857B-42B6-AF0F-88098154B183}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・defaultTimeToLive:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
+            -&gt; [MOMメッセージング専用ハンドラ] -&gt; [メッセージングコンテキスト管理ハンドラ]
+              -&gt; [MQの接続先の設定を行う] -&gt; [MessagingProvider] -&gt; [JmsMessagingProvider]</text>
+  </threadedComment>
+  <threadedComment ref="G34" dT="2020-07-10T04:22:23.51" personId="{00000000-0000-0000-0000-000000000000}" id="{1A632442-1CB8-4571-8296-EA70698020DD}" parentId="{48499EF5-857B-42B6-AF0F-88098154B183}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="G40" dT="2020-06-19T07:41:02.21" personId="{00000000-0000-0000-0000-000000000000}" id="{C27A8888-6D4E-422E-91BD-890ECD8576F9}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・receiveQueueName:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [メッセージング編]
+            -&gt; [MOMによるメッセージング] -&gt; [アーキテクチャ概要]
+              -&gt; [MOMメッセージングで使用するデータリーダ]
+              -&gt; [MessageReader (MQから電文の読み込み)]</text>
+  </threadedComment>
+  <threadedComment ref="G40" dT="2020-07-10T04:26:20.87" personId="{00000000-0000-0000-0000-000000000000}" id="{A6BA0E12-2196-4D66-BD05-ED7FAAB5366F}" parentId="{C27A8888-6D4E-422E-91BD-890ECD8576F9}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="G46" dT="2020-06-19T07:43:19.54" personId="{00000000-0000-0000-0000-000000000000}" id="{CE604119-F1A7-4593-A082-A05B915D46AF}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・readTimeout:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [メッセージング編]
+            -&gt; [MOMによるメッセージング] -&gt; [アーキテクチャ概要]
+              -&gt; [MOMメッセージングで使用するデータリーダ]
+              -&gt; [MessageReader (MQから電文の読み込み)]</text>
+  </threadedComment>
+  <threadedComment ref="G46" dT="2020-07-10T04:30:31.99" personId="{00000000-0000-0000-0000-000000000000}" id="{0DAF8F5A-3DB5-4A66-9E38-C735DD75733E}" parentId="{CE604119-F1A7-4593-A082-A05B915D46AF}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G27" dT="2020-06-19T07:44:28.78" personId="{00000000-0000-0000-0000-000000000000}" id="{F488F8FF-F15D-46EA-9A95-2B2EA7E568E3}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・sendQueueName:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchが提供するライブラリ]
+            -&gt; [システム間メッセージング] -&gt; [MOMメッセージング]
+              -&gt; [同期応答でメッセージを送信する(同期応答メッセージ送信)]
+              -&gt; [MessageSenderの設定]-&gt;[MessageSenderSettings ]</text>
+  </threadedComment>
+  <threadedComment ref="G27" dT="2020-07-10T04:34:57.83" personId="{00000000-0000-0000-0000-000000000000}" id="{22040C71-3B58-4D02-A782-8EEA0DAB5E01}" parentId="{F488F8FF-F15D-46EA-9A95-2B2EA7E568E3}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H27" dT="2020-06-19T07:46:16.49" personId="{00000000-0000-0000-0000-000000000000}" id="{89DEF916-B3C6-434E-96F3-3E01724846B0}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・threadCount:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
+            -&gt; [スタンドアローン型アプリケーション共通ハンドラ] -&gt; [マルチスレッド実行制御ハンドラ]
+              -&gt; [スレッド数を指定する]</text>
+  </threadedComment>
+  <threadedComment ref="H27" dT="2020-07-10T04:44:05.85" personId="{00000000-0000-0000-0000-000000000000}" id="{E7F2A2AD-B1CE-4D52-A2CE-7CDCE3BC9621}" parentId="{89DEF916-B3C6-434E-96F3-3E01724846B0}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="H34" dT="2020-06-19T07:46:52.96" personId="{00000000-0000-0000-0000-000000000000}" id="{E6051FE1-9D4A-40AA-83B0-BF759BCC07A0}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・defaultTimeToLive:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
+            -&gt; [MOMメッセージング専用ハンドラ] -&gt; [メッセージングコンテキスト管理ハンドラ]
+              -&gt; [MQの接続先の設定を行う]</text>
+  </threadedComment>
+  <threadedComment ref="H34" dT="2020-07-10T04:47:40.51" personId="{00000000-0000-0000-0000-000000000000}" id="{7CFD9DE9-BDDE-4CCB-9CC5-0B48E1BF10D2}" parentId="{E6051FE1-9D4A-40AA-83B0-BF759BCC07A0}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="H41" dT="2020-06-19T07:48:08.54" personId="{00000000-0000-0000-0000-000000000000}" id="{0FDE4431-6240-4FC5-BF45-455333D04252}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・receiveQueueName:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [メッセージング編]
+            -&gt; [MOMによるメッセージング] -&gt; [アーキテクチャ概要]
+              -&gt; [MOMメッセージングで使用するデータリーダ]
+              -&gt; [MessageReader (MQから電文の読み込み)]</text>
+  </threadedComment>
+  <threadedComment ref="H41" dT="2020-07-10T04:49:23.55" personId="{00000000-0000-0000-0000-000000000000}" id="{B618A56F-3079-464C-9B61-FC785EB0128D}" parentId="{0FDE4431-6240-4FC5-BF45-455333D04252}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="H47" dT="2020-06-19T07:48:58.32" personId="{00000000-0000-0000-0000-000000000000}" id="{4ABFD5BE-C33C-4C0D-8DD4-95D4BAE090DD}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・poisonQueueName:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [Nablarchの提供する標準ハンドラ]
+            -&gt; [MOMメッセージング専用ハンドラ] -&gt; [メッセージングコンテキスト管理ハンドラ]
+              -&gt; [MQの接続先の設定を行う] -&gt; [MessagingProvider] -&gt; [JmsMessagingProvider]</text>
+  </threadedComment>
+  <threadedComment ref="H47" dT="2020-07-10T04:51:01.71" personId="{00000000-0000-0000-0000-000000000000}" id="{BBBAC56F-EA4B-4DFD-B0E4-CD8EF9EA4B50}" parentId="{4ABFD5BE-C33C-4C0D-8DD4-95D4BAE090DD}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="H53" dT="2020-06-19T07:49:27.98" personId="{00000000-0000-0000-0000-000000000000}" id="{5DDB42D7-182F-4C2C-9BEA-FD19275625D2}">
+    <text>TIS世古
+誠に申し訳ないのですが、原文に間違いがありました。
+以下を訳してほしいです。
+    ・readTimeou:下記を参照
+        [Nablarch Application Framework解説書]
+　　　　  -&gt; [アプリケーションフレームワーク] -&gt; [メッセージング編]
+            -&gt; [MOMによるメッセージング] -&gt; [アーキテクチャ概要]
+              -&gt; [MOMメッセージングで使用するデータリーダ]
+              -&gt; [MessageReader (MQから電文の読み込み)]</text>
+  </threadedComment>
+  <threadedComment ref="H53" dT="2020-07-10T04:52:23.44" personId="{00000000-0000-0000-0000-000000000000}" id="{39E0370C-78E5-4FA3-A209-F12EE90EDD08}" parentId="{5DDB42D7-182F-4C2C-9BEA-FD19275625D2}">
+    <text>修正済みの原文の訳に修正致しました。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G20" dT="2020-06-19T06:05:54.54" personId="{00000000-0000-0000-0000-000000000000}" id="{563E8447-85FC-433D-972D-814507727742}">
+    <text>TIS世古
+メール送信処理が、「start processes for incoming asynchronous messages」となっています。恐らく他の箇所のからコピーした状態になっています。</text>
+  </threadedComment>
+  <threadedComment ref="G20" dT="2020-07-10T04:55:26.66" personId="{00000000-0000-0000-0000-000000000000}" id="{526FFCBD-1082-45F7-9108-B7E3A55950BC}" parentId="{563E8447-85FC-433D-972D-814507727742}">
+    <text>申し訳ございません。修正致しました。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:P84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
@@ -12142,32 +12364,32 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:16" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:16" ht="11.25" thickBot="1">
+    <row r="4" spans="2:16" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="12" thickTop="1" thickBot="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -12175,17 +12397,17 @@
       <c r="I5" s="38"/>
       <c r="J5" s="39"/>
       <c r="K5" s="38" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="40"/>
       <c r="N5" s="37" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="39"/>
     </row>
-    <row r="6" spans="2:16" ht="12" thickTop="1" thickBot="1">
+    <row r="6" spans="2:16" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -12214,21 +12436,21 @@
         <v>0</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N6" s="44"/>
       <c r="O6" s="50"/>
       <c r="P6" s="51"/>
     </row>
-    <row r="7" spans="2:16" ht="32.25" thickTop="1">
+    <row r="7" spans="2:16" ht="32.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
@@ -12243,7 +12465,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="17" t="s">
@@ -12265,12 +12487,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="11.25" thickBot="1">
+    <row r="8" spans="2:16" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="19">
@@ -12296,12 +12518,12 @@
       <c r="O8" s="31"/>
       <c r="P8" s="32"/>
     </row>
-    <row r="9" spans="2:16" s="1" customFormat="1" ht="11.25" thickTop="1">
+    <row r="9" spans="2:16" s="1" customFormat="1" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -12313,10 +12535,10 @@
       <c r="J20" s="10"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:11" ht="17.25">
+    <row r="21" spans="2:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B21" s="70"/>
       <c r="C21" s="71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -12327,7 +12549,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="72"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="70"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -12339,10 +12561,10 @@
       <c r="J22" s="1"/>
       <c r="K22" s="72"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="70"/>
       <c r="C23" s="73" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -12353,10 +12575,10 @@
       <c r="J23" s="1"/>
       <c r="K23" s="72"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="70"/>
       <c r="C24" s="73" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -12367,10 +12589,10 @@
       <c r="J24" s="1"/>
       <c r="K24" s="72"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="70"/>
       <c r="C25" s="73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -12381,7 +12603,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="72"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="70"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -12393,10 +12615,10 @@
       <c r="J26" s="1"/>
       <c r="K26" s="72"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="70"/>
       <c r="C27" s="74" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -12407,10 +12629,10 @@
       <c r="J27" s="1"/>
       <c r="K27" s="72"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="70"/>
       <c r="C28" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -12421,10 +12643,10 @@
       <c r="J28" s="1"/>
       <c r="K28" s="72"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="70"/>
       <c r="C29" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -12435,7 +12657,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="72"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="70"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -12447,10 +12669,10 @@
       <c r="J30" s="1"/>
       <c r="K30" s="72"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="70"/>
       <c r="C31" s="74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -12461,10 +12683,10 @@
       <c r="J31" s="1"/>
       <c r="K31" s="72"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="70"/>
       <c r="C32" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -12475,10 +12697,10 @@
       <c r="J32" s="1"/>
       <c r="K32" s="72"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="70"/>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -12489,10 +12711,10 @@
       <c r="J33" s="1"/>
       <c r="K33" s="72"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="70"/>
       <c r="C34" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -12503,10 +12725,10 @@
       <c r="J34" s="1"/>
       <c r="K34" s="72"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="70"/>
       <c r="C35" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -12517,10 +12739,10 @@
       <c r="J35" s="1"/>
       <c r="K35" s="72"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" s="70"/>
       <c r="C36" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -12531,10 +12753,10 @@
       <c r="J36" s="1"/>
       <c r="K36" s="72"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B37" s="70"/>
       <c r="C37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -12545,10 +12767,10 @@
       <c r="J37" s="1"/>
       <c r="K37" s="72"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38" s="70"/>
       <c r="C38" s="81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -12559,10 +12781,10 @@
       <c r="J38" s="1"/>
       <c r="K38" s="72"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="70"/>
       <c r="C39" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -12573,10 +12795,10 @@
       <c r="J39" s="1"/>
       <c r="K39" s="72"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" s="70"/>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -12587,10 +12809,10 @@
       <c r="J40" s="1"/>
       <c r="K40" s="72"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41" s="70"/>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -12601,10 +12823,10 @@
       <c r="J41" s="1"/>
       <c r="K41" s="72"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" s="70"/>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -12615,10 +12837,10 @@
       <c r="J42" s="1"/>
       <c r="K42" s="72"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B43" s="70"/>
       <c r="C43" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -12629,10 +12851,10 @@
       <c r="J43" s="1"/>
       <c r="K43" s="72"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44" s="70"/>
       <c r="C44" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -12643,10 +12865,10 @@
       <c r="J44" s="1"/>
       <c r="K44" s="72"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" s="70"/>
       <c r="C45" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -12657,10 +12879,10 @@
       <c r="J45" s="1"/>
       <c r="K45" s="72"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B46" s="70"/>
       <c r="C46" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -12671,10 +12893,10 @@
       <c r="J46" s="1"/>
       <c r="K46" s="72"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B47" s="70"/>
       <c r="C47" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -12685,10 +12907,10 @@
       <c r="J47" s="1"/>
       <c r="K47" s="72"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48" s="70"/>
       <c r="C48" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -12699,10 +12921,10 @@
       <c r="J48" s="1"/>
       <c r="K48" s="72"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="70"/>
       <c r="C49" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -12713,7 +12935,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="72"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="70"/>
       <c r="C50" s="1" t="s">
         <v>55</v>
@@ -12727,7 +12949,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="72"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="70"/>
       <c r="C51" s="1" t="s">
         <v>56</v>
@@ -12741,10 +12963,10 @@
       <c r="J51" s="1"/>
       <c r="K51" s="72"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="70"/>
       <c r="C52" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -12755,10 +12977,10 @@
       <c r="J52" s="1"/>
       <c r="K52" s="72"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="70"/>
       <c r="C53" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -12769,10 +12991,10 @@
       <c r="J53" s="1"/>
       <c r="K53" s="72"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" s="70"/>
       <c r="C54" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -12783,10 +13005,10 @@
       <c r="J54" s="1"/>
       <c r="K54" s="72"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" s="70"/>
       <c r="C55" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -12797,10 +13019,10 @@
       <c r="J55" s="1"/>
       <c r="K55" s="72"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="70"/>
       <c r="C56" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -12811,10 +13033,10 @@
       <c r="J56" s="1"/>
       <c r="K56" s="72"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="70"/>
       <c r="C57" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -12825,10 +13047,10 @@
       <c r="J57" s="1"/>
       <c r="K57" s="72"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" s="70"/>
       <c r="C58" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -12839,10 +13061,10 @@
       <c r="J58" s="1"/>
       <c r="K58" s="72"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B59" s="70"/>
       <c r="C59" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -12853,10 +13075,10 @@
       <c r="J59" s="1"/>
       <c r="K59" s="72"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B60" s="70"/>
       <c r="C60" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -12867,10 +13089,10 @@
       <c r="J60" s="1"/>
       <c r="K60" s="72"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B61" s="70"/>
       <c r="C61" s="81" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -12881,10 +13103,10 @@
       <c r="J61" s="1"/>
       <c r="K61" s="72"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B62" s="70"/>
       <c r="C62" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -12895,7 +13117,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="72"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B63" s="70"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -12907,10 +13129,10 @@
       <c r="J63" s="1"/>
       <c r="K63" s="72"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B64" s="70"/>
       <c r="C64" s="74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -12921,10 +13143,10 @@
       <c r="J64" s="1"/>
       <c r="K64" s="72"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B65" s="70"/>
       <c r="C65" s="81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -12935,10 +13157,10 @@
       <c r="J65" s="1"/>
       <c r="K65" s="72"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B66" s="70"/>
       <c r="C66" s="81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -12949,10 +13171,10 @@
       <c r="J66" s="1"/>
       <c r="K66" s="72"/>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B67" s="70"/>
       <c r="C67" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -12963,10 +13185,10 @@
       <c r="J67" s="1"/>
       <c r="K67" s="72"/>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B68" s="70"/>
       <c r="C68" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -12977,10 +13199,10 @@
       <c r="J68" s="1"/>
       <c r="K68" s="72"/>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B69" s="70"/>
       <c r="C69" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -12991,10 +13213,10 @@
       <c r="J69" s="1"/>
       <c r="K69" s="72"/>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B70" s="70"/>
       <c r="C70" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -13005,10 +13227,10 @@
       <c r="J70" s="1"/>
       <c r="K70" s="72"/>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B71" s="70"/>
       <c r="C71" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -13019,10 +13241,10 @@
       <c r="J71" s="1"/>
       <c r="K71" s="72"/>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B72" s="70"/>
       <c r="C72" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -13033,10 +13255,10 @@
       <c r="J72" s="1"/>
       <c r="K72" s="72"/>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B73" s="70"/>
       <c r="C73" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -13047,10 +13269,10 @@
       <c r="J73" s="1"/>
       <c r="K73" s="72"/>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B74" s="70"/>
       <c r="C74" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -13061,10 +13283,10 @@
       <c r="J74" s="1"/>
       <c r="K74" s="72"/>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B75" s="70"/>
       <c r="C75" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -13075,10 +13297,10 @@
       <c r="J75" s="1"/>
       <c r="K75" s="72"/>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B76" s="70"/>
       <c r="C76" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -13089,7 +13311,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="72"/>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B77" s="70"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -13101,10 +13323,10 @@
       <c r="J77" s="1"/>
       <c r="K77" s="72"/>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B78" s="70"/>
       <c r="C78" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -13115,125 +13337,125 @@
       <c r="J78" s="1"/>
       <c r="K78" s="72"/>
     </row>
-    <row r="79" spans="2:11" ht="21">
+    <row r="79" spans="2:11" ht="21" x14ac:dyDescent="0.15">
       <c r="B79" s="70"/>
       <c r="C79" s="1"/>
       <c r="D79" s="65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F79" s="65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G79" s="82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H79" s="65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="72"/>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B80" s="70"/>
       <c r="C80" s="66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D80" s="83" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="E80" s="64" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="F80" s="64" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="G80" s="83" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="H80" s="64" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="72"/>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B81" s="70"/>
       <c r="C81" s="66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D81" s="83" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="E81" s="64" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="F81" s="64" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="G81" s="83" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="H81" s="64" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="72"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B82" s="70"/>
       <c r="C82" s="66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D82" s="83" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="E82" s="83" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="F82" s="64" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="G82" s="83" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="72"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B83" s="70"/>
       <c r="C83" s="66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D83" s="67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E83" s="67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F83" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G83" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G83" s="67" t="s">
-        <v>57</v>
-      </c>
       <c r="H83" s="67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="72"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B84" s="75"/>
       <c r="C84" s="76"/>
       <c r="D84" s="76"/>
@@ -13251,7 +13473,6 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -13262,7 +13483,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -13273,54 +13494,54 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5" s="59"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1">
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13344,7 +13565,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -13355,62 +13576,62 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="59"/>
     </row>
-    <row r="6" spans="2:7" ht="21">
+    <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1">
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13434,7 +13655,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -13447,62 +13668,62 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
       <c r="G5" s="59"/>
     </row>
-    <row r="6" spans="2:10" ht="21">
+    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
@@ -13510,7 +13731,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13536,7 +13757,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -13549,20 +13770,20 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -13570,55 +13791,55 @@
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="2:10" ht="21">
+    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D7" s="80">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
@@ -13628,7 +13849,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13654,7 +13875,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -13667,20 +13888,20 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -13688,55 +13909,55 @@
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
@@ -13746,7 +13967,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13772,7 +13993,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -13785,20 +14006,20 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -13806,55 +14027,55 @@
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
@@ -13864,7 +14085,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13890,7 +14111,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -13904,42 +14125,42 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="57" customFormat="1" ht="14.25">
+    <row r="1" spans="2:13" s="57" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="25"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="87" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="40"/>
       <c r="L5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M5" s="40"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -13962,17 +14183,17 @@
         <v>0</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>52</v>
@@ -14005,7 +14226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -14019,7 +14240,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14046,7 +14267,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -14058,41 +14279,41 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="87" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="59"/>
       <c r="K5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -14112,17 +14333,17 @@
         <v>0</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K6" s="44"/>
       <c r="L6" s="54"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="6"/>
@@ -14138,7 +14359,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -14151,7 +14372,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1">
+    <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14177,7 +14398,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -14192,42 +14413,42 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:13" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="87" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="59"/>
       <c r="L5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M5" s="40"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -14250,17 +14471,17 @@
         <v>0</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -14277,7 +14498,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -14291,7 +14512,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14318,7 +14539,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -14332,39 +14553,39 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F5" s="87" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
       <c r="J5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -14381,17 +14602,17 @@
         <v>33</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="54"/>
     </row>
-    <row r="7" spans="2:11" ht="21">
+    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -14408,7 +14629,7 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -14420,7 +14641,7 @@
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="2:11" s="1" customFormat="1">
+    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14445,7 +14666,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -14458,43 +14679,43 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:14" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="87" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="59"/>
       <c r="M5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N5" s="40"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -14520,17 +14741,17 @@
         <v>0</v>
       </c>
       <c r="L6" s="89" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M6" s="44"/>
       <c r="N6" s="54"/>
     </row>
-    <row r="7" spans="2:14" ht="21">
+    <row r="7" spans="2:14" ht="21" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -14548,7 +14769,7 @@
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -14563,7 +14784,7 @@
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
     </row>
-    <row r="9" spans="2:14" s="1" customFormat="1">
+    <row r="9" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14594,7 +14815,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
@@ -14606,35 +14827,35 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F5" s="87" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="59"/>
       <c r="I5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J5" s="40"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -14646,17 +14867,17 @@
         <v>0</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="54"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="63"/>
@@ -14670,7 +14891,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="27"/>
@@ -14681,7 +14902,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14708,7 +14929,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -14721,20 +14942,20 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -14742,46 +14963,46 @@
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="2:10" ht="21">
+    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E6" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>167</v>
-      </c>
       <c r="I6" s="53" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -14790,7 +15011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
@@ -14800,7 +15021,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -14826,7 +15047,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -14837,62 +15058,62 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25">
+    <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="59"/>
     </row>
-    <row r="6" spans="2:7" ht="21">
+    <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1">
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>

--- a/en/Batch-Development-Assistance/Job_Execution_Shell_Script_Autogeneration_Settings.xlsx
+++ b/en/Batch-Development-Assistance/Job_Execution_Shell_Script_Autogeneration_Settings.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8B93781-9498-43CD-87F0-B76FCCF23BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7475BE-62F5-45E2-9FF2-95998EBEBF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="37260" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Writing instructions &amp; samples" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="246">
   <si>
     <t>userId</t>
   </si>
@@ -527,10 +527,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">        Refer to the following source for descriptions of these options.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">        [Programming and unit test guide]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1022,6 +1018,14 @@
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           Configure the user ID. This value is stored in the session context variable with the name user.id.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           Specifies the action to be executed and the request ID.  format:"Executable action class name/Request ID"</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4833,8 +4837,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
@@ -4852,7 +4856,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="495300" y="1514475"/>
-          <a:ext cx="7200900" cy="6553200"/>
+          <a:ext cx="7200900" cy="4295775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5195,183 +5199,8 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>          -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Application framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Libraries provided by Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [Date management]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Configuring the settings to use the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>business date function</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
+            <a:t>: Business date category</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -5413,250 +5242,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>: Refer to  the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  -&gt; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Application framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>] -&gt; [Handlers</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> provided by Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Common handlers for stand-alone applications</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Multi-thread execution control handler</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Specify number of threads</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
+            <a:t>: Thread count</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5699,241 +5285,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-&gt; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Application framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>] -&gt; [Handlers provided by Nablarch]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Dedicated </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>handlers for batch applications</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Transaction loop control handlers</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Specify commit intervals</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
+            <a:t>: Commits interval per action</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5976,8 +5328,70 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
+            <a:t>: Maximum number of data.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>                This configuration value is specified when batch processing large amount of data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>                that is processed for several days, etc. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>                Don't want to set a maximum number of data, specify 0.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -5985,208 +5399,6 @@
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>　　　　  -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Application framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Handlers provided by Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Common handlers for stand-alone applications</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Data read handlers</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>              -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>Set </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>maximum data reads</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -6297,8 +5509,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
@@ -6316,7 +5528,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="371475" y="1581150"/>
-          <a:ext cx="7200900" cy="6553200"/>
+          <a:ext cx="7200900" cy="3600450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6657,36 +5869,13 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -6696,6 +5885,16 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -6703,18 +5902,28 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>          </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>-&gt; [Application framework] -&gt; [Libraries provided by Nablarch] -&gt; [Date management]</a:t>
-          </a:r>
+            <a:t>threadCount: Thread count</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -6724,14 +5933,26 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>            -&gt; [Configuring the settings to use the business date function]</a:t>
+            <a:t>    ・dataWatchInterval</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Data monitoring interval [millisecond]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6741,12 +5962,14 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:effectLst/>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -6756,158 +5979,14 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>    ・threadCount</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-NZ" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-&gt; [Application framework] -&gt; [Handlers provided by Nablarch]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            -&gt; [Common handlers for stand-alone applications] </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>              -&gt; [Multi-thread execution control handler] -&gt; [Specify number of threads]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -6917,309 +5996,6 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>    ・dataWatchInterval</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　　　  -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Application framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Standard handlers provided by Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dedicated handlers for batch applications</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Handler for changing to resident processes</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>              -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Configuring d</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ata monitoring interval settings</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
               <a:effectLst/>
@@ -7296,8 +6072,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
@@ -7315,7 +6091,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="514350" y="1981200"/>
-          <a:ext cx="7200900" cy="6553200"/>
+          <a:ext cx="7200900" cy="3324225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7493,6 +6269,16 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -7500,140 +6286,17 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>    ・threadCount</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-NZ" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-&gt; [Application framework] -&gt; [Handlers provided by Nablarch]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            -&gt; [Common handlers for stand-alone applications] </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>              -&gt; [Multi-thread execution control handler] -&gt; [Specify number of threads]</a:t>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>threadCount: Thread count</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7673,268 +6336,8 @@
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>      </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Application framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Standard handlers provided by Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Dedicated MOM messaging handlers</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Messaging context management handlers</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>] </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>               </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Configure MQ connection settings</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>] </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>-&gt; [MessagingProvider] -&gt; [JmsMessagingProvider]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>: Default value for the validity period of outgoing message.</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -7978,219 +6381,8 @@
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>          -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Application framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Messaging guide</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>MOM messaging</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Overview of architecture</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>               -&gt; [Data readers used for MOM message]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>                  -&gt; [MessageReader (Load message from MQ)]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>: The name of the incoming queue to be monitored by the reader</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -8234,253 +6426,44 @@
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>          -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Application framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Messaging guide</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>MOM messaging</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Overview of architecture</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                      -&gt; [Data readers used for MOM message]</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                          -&gt; [MessageReader (Load message from MQ)]</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
+            <a:t>: Maximum time to wait when the receive queue is empty [milliseconds].</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
             <a:lnSpc>
-              <a:spcPts val="1100"/>
+              <a:spcPts val="1200"/>
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>               If it is configure to a value of 0 or less,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>               it does not time out and waits until a new message is received.</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -8819,109 +6802,8 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　　  </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>: send queue name</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -8930,56 +6812,13 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>         -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Application framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Libraries provided by Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -8988,131 +6827,7 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>            -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Messaging between systems</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>MOM messaging</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>              -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Send synchronous messages</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(synchronous messaging)]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                -&gt; [MessageSender settings] - &gt; [MessageSenderSettings]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -9484,6 +7199,16 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -9491,7 +7216,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>    ・threadCount</a:t>
+            <a:t>・</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -9501,15 +7226,8 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>threadCount: Thread count</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -9518,36 +7236,13 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -9557,24 +7252,34 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-NZ" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>　　　　  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>-&gt; [Application framework] -&gt; [Handlers provided by Nablarch]</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>defaultTimeToLive: Default value for the validity period of outgoing message.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9584,16 +7289,13 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>            -&gt; [Common handlers for stand-alone applications] </a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -9603,14 +7305,81 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>              -&gt; [Multi-thread execution control handler] -&gt; [Specify number of threads]</a:t>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>receiveQueueName: The name of the incoming queue to be monitored by the reader</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>    ・poisonQueueName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Incoming message evacuation queue (Poison Queue) name</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9636,6 +7405,16 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -9643,7 +7422,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>    ・defaultTimeToLive</a:t>
+            <a:t>・</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -9653,127 +7432,8 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>      -&gt; [Application framework] -&gt; [Standard handlers provided by Nablarch]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            -&gt; [Dedicated MOM messaging handlers] -&gt; [Messaging context management handlers] </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>               -&gt; [Configure MQ connection settings]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>readTimeout: Maximum time to wait when the receive queue is empty [milliseconds].</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -9783,161 +7443,15 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>    ・receiveQueueName</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>          -&gt; [Application framework] -&gt; [Messaging guide]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            -&gt; [MOM messaging] -&gt; [Overview of architecture]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>               -&gt; [Data readers used for MOM message]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                  -&gt; [MessageReader (Load message from MQ)]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>               If it is configure to a value of 0 or less,</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -9947,366 +7461,6 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>    ・poisonQueueName</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>      </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-&gt; [Application framework] -&gt; [Standard handlers provided by Nablarch]</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dedicated MOM messaging handlers</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Messaging context management handlers</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>] </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>          </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Configure MQ connection settings</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>] </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-&gt; [MessagingProvider] </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>             -&gt; [JmsMessagingProvider]</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>    ・readTimeout</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: Refer to the following source</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>        [Nablarch Application Framework </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -10314,237 +7468,8 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Manual</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>          </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Application framework</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Messaging guide</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>MOM messaging</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>] -&gt; [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Overview of architecture</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                      -&gt; [Data readers used for MOM message]</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                          -&gt; [MessageReader (Load message from MQ)]</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-NZ" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>               it does not time out and waits until a new message is received.</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -12343,7 +9268,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="B1:P84"/>
+  <dimension ref="B1:P85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12386,10 +9311,10 @@
         <v>98</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -12397,12 +9322,12 @@
       <c r="I5" s="38"/>
       <c r="J5" s="39"/>
       <c r="K5" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="40"/>
       <c r="N5" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="39"/>
@@ -12436,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N6" s="44"/>
       <c r="O6" s="50"/>
@@ -12564,7 +9489,7 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="70"/>
       <c r="C23" s="73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -12578,7 +9503,7 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="70"/>
       <c r="C24" s="73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -12618,7 +9543,7 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="70"/>
       <c r="C27" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -12632,7 +9557,7 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="70"/>
       <c r="C28" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -12646,7 +9571,7 @@
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="70"/>
       <c r="C29" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -12742,7 +9667,7 @@
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" s="70"/>
       <c r="C36" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -12784,7 +9709,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="70"/>
       <c r="C39" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -12868,7 +9793,7 @@
     <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" s="70"/>
       <c r="C45" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -12924,7 +9849,7 @@
     <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="70"/>
       <c r="C49" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -12952,7 +9877,7 @@
     <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="70"/>
       <c r="C51" s="1" t="s">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -12966,7 +9891,7 @@
     <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="70"/>
       <c r="C52" s="1" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -12980,7 +9905,7 @@
     <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="70"/>
       <c r="C53" s="1" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -12994,7 +9919,7 @@
     <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" s="70"/>
       <c r="C54" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -13008,7 +9933,7 @@
     <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" s="70"/>
       <c r="C55" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -13022,7 +9947,7 @@
     <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="70"/>
       <c r="C56" s="1" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -13036,7 +9961,7 @@
     <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="70"/>
       <c r="C57" s="1" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -13050,7 +9975,7 @@
     <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" s="70"/>
       <c r="C58" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -13064,7 +9989,7 @@
     <row r="59" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B59" s="70"/>
       <c r="C59" s="1" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -13078,7 +10003,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B60" s="70"/>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -13091,8 +10016,8 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B61" s="70"/>
-      <c r="C61" s="81" t="s">
-        <v>128</v>
+      <c r="C61" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -13105,8 +10030,8 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B62" s="70"/>
-      <c r="C62" s="1" t="s">
-        <v>129</v>
+      <c r="C62" s="81" t="s">
+        <v>127</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -13119,7 +10044,9 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B63" s="70"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -13131,9 +10058,7 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B64" s="70"/>
-      <c r="C64" s="74" t="s">
-        <v>130</v>
-      </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -13145,8 +10070,8 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B65" s="70"/>
-      <c r="C65" s="81" t="s">
-        <v>131</v>
+      <c r="C65" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -13160,7 +10085,7 @@
     <row r="66" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B66" s="70"/>
       <c r="C66" s="81" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -13173,8 +10098,8 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B67" s="70"/>
-      <c r="C67" s="1" t="s">
-        <v>133</v>
+      <c r="C67" s="81" t="s">
+        <v>131</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -13188,7 +10113,7 @@
     <row r="68" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B68" s="70"/>
       <c r="C68" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -13202,7 +10127,7 @@
     <row r="69" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B69" s="70"/>
       <c r="C69" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -13216,7 +10141,7 @@
     <row r="70" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B70" s="70"/>
       <c r="C70" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -13230,7 +10155,7 @@
     <row r="71" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B71" s="70"/>
       <c r="C71" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -13244,7 +10169,7 @@
     <row r="72" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B72" s="70"/>
       <c r="C72" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -13258,7 +10183,7 @@
     <row r="73" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B73" s="70"/>
       <c r="C73" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -13272,7 +10197,7 @@
     <row r="74" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B74" s="70"/>
       <c r="C74" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -13286,7 +10211,7 @@
     <row r="75" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B75" s="70"/>
       <c r="C75" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -13300,7 +10225,7 @@
     <row r="76" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B76" s="70"/>
       <c r="C76" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -13313,7 +10238,9 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B77" s="70"/>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -13325,9 +10252,7 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B78" s="70"/>
-      <c r="C78" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -13337,47 +10262,37 @@
       <c r="J78" s="1"/>
       <c r="K78" s="72"/>
     </row>
-    <row r="79" spans="2:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B79" s="70"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="E79" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="F79" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="G79" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="H79" s="65" t="s">
-        <v>147</v>
-      </c>
+      <c r="C79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="72"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:11" ht="21" x14ac:dyDescent="0.15">
       <c r="B80" s="70"/>
-      <c r="C80" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="D80" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="E80" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="F80" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="G80" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="H80" s="64" t="s">
-        <v>57</v>
+      <c r="C80" s="1"/>
+      <c r="D80" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="G80" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="H80" s="65" t="s">
+        <v>146</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -13386,10 +10301,10 @@
     <row r="81" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B81" s="70"/>
       <c r="C81" s="66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D81" s="83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E81" s="64" t="s">
         <v>57</v>
@@ -13398,7 +10313,7 @@
         <v>57</v>
       </c>
       <c r="G81" s="83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H81" s="64" t="s">
         <v>57</v>
@@ -13410,22 +10325,22 @@
     <row r="82" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B82" s="70"/>
       <c r="C82" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D82" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="E82" s="83" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="E82" s="64" t="s">
+        <v>57</v>
       </c>
       <c r="F82" s="64" t="s">
         <v>57</v>
       </c>
       <c r="G82" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="H82" s="83" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="H82" s="64" t="s">
+        <v>57</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -13434,38 +10349,62 @@
     <row r="83" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B83" s="70"/>
       <c r="C83" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="D83" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E83" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F83" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="G83" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="H83" s="67" t="s">
-        <v>58</v>
+      <c r="E83" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="F83" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G83" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="H83" s="83" t="s">
+        <v>151</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="72"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B84" s="75"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="76"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="76"/>
-      <c r="K84" s="77"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F84" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G84" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="H84" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="72"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B85" s="75"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -13496,18 +10435,18 @@
   <sheetData>
     <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="59"/>
     </row>
@@ -13515,10 +10454,10 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
@@ -13526,7 +10465,7 @@
         <v>89</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>77</v>
@@ -13578,18 +10517,18 @@
   <sheetData>
     <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="59"/>
@@ -13598,13 +10537,13 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
@@ -13612,7 +10551,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>78</v>
@@ -13670,18 +10609,18 @@
   <sheetData>
     <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -13691,16 +10630,16 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="F6" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="53" t="s">
-        <v>191</v>
-      </c>
       <c r="G6" s="85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -13708,7 +10647,7 @@
         <v>91</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>79</v>
@@ -13772,18 +10711,18 @@
   <sheetData>
     <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -13795,22 +10734,22 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="F6" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="G6" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="H6" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="53" t="s">
-        <v>198</v>
-      </c>
       <c r="I6" s="85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -13818,7 +10757,7 @@
         <v>92</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7" s="80">
         <v>0</v>
@@ -13890,18 +10829,18 @@
   <sheetData>
     <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -13913,22 +10852,22 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="F6" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="G6" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="H6" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="H6" s="53" t="s">
-        <v>207</v>
-      </c>
       <c r="I6" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -13936,7 +10875,7 @@
         <v>93</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>83</v>
@@ -14008,18 +10947,18 @@
   <sheetData>
     <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -14031,22 +10970,22 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="53" t="s">
-        <v>204</v>
-      </c>
       <c r="F6" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="I6" s="53" t="s">
         <v>213</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -14054,7 +10993,7 @@
         <v>94</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>84</v>
@@ -14127,7 +11066,7 @@
   <sheetData>
     <row r="1" spans="2:13" s="57" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
@@ -14136,27 +11075,27 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>154</v>
-      </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="40"/>
       <c r="L5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M5" s="40"/>
     </row>
@@ -14183,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
@@ -14193,7 +11132,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>52</v>
@@ -14281,7 +11220,7 @@
   <sheetData>
     <row r="1" spans="2:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
@@ -14290,26 +11229,26 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>158</v>
-      </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="59"/>
       <c r="K5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L5" s="40"/>
     </row>
@@ -14333,7 +11272,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K6" s="44"/>
       <c r="L6" s="54"/>
@@ -14343,7 +11282,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="6"/>
@@ -14415,7 +11354,7 @@
   <sheetData>
     <row r="1" spans="2:13" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
@@ -14424,27 +11363,27 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="59"/>
       <c r="L5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M5" s="40"/>
     </row>
@@ -14471,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
@@ -14481,7 +11420,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -14555,7 +11494,7 @@
   <sheetData>
     <row r="1" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
@@ -14563,25 +11502,25 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>162</v>
-      </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
       <c r="J5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K5" s="40"/>
     </row>
@@ -14602,7 +11541,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="54"/>
@@ -14612,7 +11551,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -14681,7 +11620,7 @@
   <sheetData>
     <row r="1" spans="2:14" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
@@ -14690,28 +11629,28 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="59"/>
       <c r="M5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N5" s="40"/>
     </row>
@@ -14741,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M6" s="44"/>
       <c r="N6" s="54"/>
@@ -14751,7 +11690,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -14829,29 +11768,29 @@
   <sheetData>
     <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="59"/>
       <c r="I5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J5" s="40"/>
     </row>
@@ -14867,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="54"/>
@@ -14877,7 +11816,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="63"/>
@@ -14944,18 +11883,18 @@
   <sheetData>
     <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -14967,22 +11906,22 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="53" t="s">
+      <c r="G6" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="H6" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="53" t="s">
-        <v>169</v>
-      </c>
       <c r="I6" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -14990,7 +11929,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>74</v>
@@ -15060,18 +11999,18 @@
   <sheetData>
     <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="59"/>
@@ -15080,13 +12019,13 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="F6" s="85" t="s">
         <v>175</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
@@ -15094,7 +12033,7 @@
         <v>88</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>82</v>

--- a/en/Batch-Development-Assistance/Job_Execution_Shell_Script_Autogeneration_Settings.xlsx
+++ b/en/Batch-Development-Assistance/Job_Execution_Shell_Script_Autogeneration_Settings.xlsx
@@ -3,26 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7475BE-62F5-45E2-9FF2-95998EBEBF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7147F98D-9FCB-4702-9313-202999DC71EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4290" windowWidth="38400" windowHeight="10575" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Writing instructions &amp; samples" sheetId="7" r:id="rId1"/>
-    <sheet name="都度起動バッチ" sheetId="1" r:id="rId2"/>
-    <sheet name="常駐バッチ" sheetId="2" r:id="rId3"/>
-    <sheet name="メッセージ同期応答" sheetId="3" r:id="rId4"/>
-    <sheet name="メッセージ無応答-仕向け" sheetId="4" r:id="rId5"/>
-    <sheet name="メッセージ無応答-被仕向け" sheetId="5" r:id="rId6"/>
-    <sheet name="メール送信" sheetId="6" r:id="rId7"/>
-    <sheet name="ファイル移動・コピー" sheetId="9" r:id="rId8"/>
-    <sheet name="ファイルバックアップ" sheetId="10" r:id="rId9"/>
-    <sheet name="ファイル削除" sheetId="11" r:id="rId10"/>
-    <sheet name="ファイル解凍" sheetId="12" r:id="rId11"/>
-    <sheet name="ファイル圧縮" sheetId="13" r:id="rId12"/>
-    <sheet name="ファイル暗号化復号" sheetId="14" r:id="rId13"/>
-    <sheet name="ファイル送信" sheetId="15" r:id="rId14"/>
-    <sheet name="ファイル受信" sheetId="16" r:id="rId15"/>
+    <sheet name="on-demand-batches" sheetId="1" r:id="rId2"/>
+    <sheet name="resident-batches" sheetId="2" r:id="rId3"/>
+    <sheet name="synchronous-messaging-process" sheetId="3" r:id="rId4"/>
+    <sheet name="asynchronous-message(sending)" sheetId="4" r:id="rId5"/>
+    <sheet name="asynchronous-message(receiving)" sheetId="5" r:id="rId6"/>
+    <sheet name="sending-emails" sheetId="6" r:id="rId7"/>
+    <sheet name="file-transfer-and-copying" sheetId="9" r:id="rId8"/>
+    <sheet name="file-backups" sheetId="10" r:id="rId9"/>
+    <sheet name="file-deletions" sheetId="11" r:id="rId10"/>
+    <sheet name="file-unzipping" sheetId="12" r:id="rId11"/>
+    <sheet name="file-zipping" sheetId="13" r:id="rId12"/>
+    <sheet name="file-encryption-and-decryption" sheetId="14" r:id="rId13"/>
+    <sheet name="sending-files" sheetId="15" r:id="rId14"/>
+    <sheet name="receiving-files" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
@@ -961,71 +961,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">  ・Javaオプション(Java options)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Javaオプション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ・システムプロパティ設定(System property settings)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムプロパティ設定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ・オプション(Options (for purposes other than applications))</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オプション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ・Options (アプリケーション用(for applications))</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ・引数(Arguments)</t>
-  </si>
-  <si>
-    <t>アプリケーション用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムプロパティ設定</t>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アプリケーション用</t>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引数</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">           Configure the user ID. This value is stored in the session context variable with the name user.id.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">           Specifies the action to be executed and the request ID.  format:"Executable action class name/Request ID"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ・Java options</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java Options</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>System Property Settings</t>
+  </si>
+  <si>
+    <t>System Property Settings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ・System property settings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ・Options (for purposes other than applications)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Arguments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ・Arguments(Arguments)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ・Options (for applications)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for applications</t>
+  </si>
+  <si>
+    <t>for applications</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9270,7 +9256,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:P85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9311,10 +9297,10 @@
         <v>98</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -9322,12 +9308,12 @@
       <c r="I5" s="38"/>
       <c r="J5" s="39"/>
       <c r="K5" s="38" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="40"/>
       <c r="N5" s="37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="39"/>
@@ -9361,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N6" s="44"/>
       <c r="O6" s="50"/>
@@ -9667,7 +9653,7 @@
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" s="70"/>
       <c r="C36" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -9709,7 +9695,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="70"/>
       <c r="C39" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -9793,7 +9779,7 @@
     <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" s="70"/>
       <c r="C45" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -9877,7 +9863,7 @@
     <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="70"/>
       <c r="C51" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -9905,7 +9891,7 @@
     <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="70"/>
       <c r="C53" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -9961,7 +9947,7 @@
     <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="70"/>
       <c r="C57" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -10003,7 +9989,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B60" s="70"/>
       <c r="C60" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -10446,7 +10432,7 @@
         <v>178</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="E5" s="59"/>
     </row>
@@ -10528,7 +10514,7 @@
         <v>162</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="59"/>
@@ -10620,7 +10606,7 @@
         <v>186</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -10722,7 +10708,7 @@
         <v>158</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -10840,7 +10826,7 @@
         <v>162</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -10958,7 +10944,7 @@
         <v>209</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -11048,7 +11034,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:M9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11081,21 +11067,21 @@
         <v>153</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="87" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="40"/>
       <c r="L5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="M5" s="40"/>
     </row>
@@ -11122,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
@@ -11235,20 +11221,20 @@
         <v>157</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="87" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="59"/>
       <c r="K5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="L5" s="40"/>
     </row>
@@ -11272,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K6" s="44"/>
       <c r="L6" s="54"/>
@@ -11369,21 +11355,21 @@
         <v>158</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="87" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="59"/>
       <c r="L5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="M5" s="40"/>
     </row>
@@ -11410,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
@@ -11508,19 +11494,19 @@
         <v>161</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F5" s="87" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
       <c r="J5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="K5" s="40"/>
     </row>
@@ -11541,7 +11527,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="54"/>
@@ -11635,22 +11621,22 @@
         <v>162</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="87" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="59"/>
       <c r="M5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="N5" s="40"/>
     </row>
@@ -11680,7 +11666,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="89" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M6" s="44"/>
       <c r="N6" s="54"/>
@@ -11779,18 +11765,18 @@
         <v>162</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F5" s="87" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="59"/>
       <c r="I5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="J5" s="40"/>
     </row>
@@ -11806,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="54"/>
@@ -11894,7 +11880,7 @@
         <v>158</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -12010,7 +11996,7 @@
         <v>158</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="59"/>

--- a/en/Batch-Development-Assistance/Job_Execution_Shell_Script_Autogeneration_Settings.xlsx
+++ b/en/Batch-Development-Assistance/Job_Execution_Shell_Script_Autogeneration_Settings.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7147F98D-9FCB-4702-9313-202999DC71EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895A2ACF-0400-4BA4-812D-0C2325ACC054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4290" windowWidth="38400" windowHeight="10575" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Writing instructions &amp; samples" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="243">
   <si>
     <t>userId</t>
   </si>
@@ -524,18 +524,6 @@
   </si>
   <si>
     <t xml:space="preserve">        For other fields, information is written to the generated shell in the format '"-" + key + " " + value'.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        [Programming and unit test guide]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　  -&gt; [Implementing business applications (batch processes)] -&gt; [6.3. Common application structure for all batches]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            -&gt; [Process workflow] -&gt; [Command line arguments]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9254,7 +9242,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="B1:P85"/>
+  <dimension ref="B1:P82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
@@ -9297,10 +9285,10 @@
         <v>98</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>233</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>236</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -9308,12 +9296,12 @@
       <c r="I5" s="38"/>
       <c r="J5" s="39"/>
       <c r="K5" s="38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="40"/>
       <c r="N5" s="37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="39"/>
@@ -9347,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N6" s="44"/>
       <c r="O6" s="50"/>
@@ -9475,7 +9463,7 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="70"/>
       <c r="C23" s="73" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -9489,7 +9477,7 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="70"/>
       <c r="C24" s="73" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -9529,7 +9517,7 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="70"/>
       <c r="C27" s="74" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -9543,7 +9531,7 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="70"/>
       <c r="C28" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -9557,7 +9545,7 @@
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="70"/>
       <c r="C29" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -9653,7 +9641,7 @@
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" s="70"/>
       <c r="C36" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -9695,7 +9683,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="70"/>
       <c r="C39" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -9779,7 +9767,7 @@
     <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" s="70"/>
       <c r="C45" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -9835,7 +9823,7 @@
     <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="70"/>
       <c r="C49" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -9863,7 +9851,7 @@
     <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="70"/>
       <c r="C51" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -9891,7 +9879,7 @@
     <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="70"/>
       <c r="C53" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -9905,7 +9893,7 @@
     <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" s="70"/>
       <c r="C54" s="1" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -9919,7 +9907,7 @@
     <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" s="70"/>
       <c r="C55" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -9933,7 +9921,7 @@
     <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="70"/>
       <c r="C56" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -9947,7 +9935,7 @@
     <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="70"/>
       <c r="C57" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -9961,7 +9949,7 @@
     <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" s="70"/>
       <c r="C58" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -9974,8 +9962,8 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B59" s="70"/>
-      <c r="C59" s="1" t="s">
-        <v>125</v>
+      <c r="C59" s="81" t="s">
+        <v>124</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -9989,7 +9977,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B60" s="70"/>
       <c r="C60" s="1" t="s">
-        <v>242</v>
+        <v>125</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -10002,9 +9990,7 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B61" s="70"/>
-      <c r="C61" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -10016,8 +10002,8 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B62" s="70"/>
-      <c r="C62" s="81" t="s">
-        <v>127</v>
+      <c r="C62" s="74" t="s">
+        <v>126</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -10030,8 +10016,8 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B63" s="70"/>
-      <c r="C63" s="1" t="s">
-        <v>128</v>
+      <c r="C63" s="81" t="s">
+        <v>127</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -10044,7 +10030,9 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B64" s="70"/>
-      <c r="C64" s="1"/>
+      <c r="C64" s="81" t="s">
+        <v>128</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -10056,7 +10044,7 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B65" s="70"/>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D65" s="1"/>
@@ -10070,7 +10058,7 @@
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B66" s="70"/>
-      <c r="C66" s="81" t="s">
+      <c r="C66" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D66" s="1"/>
@@ -10084,7 +10072,7 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B67" s="70"/>
-      <c r="C67" s="81" t="s">
+      <c r="C67" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D67" s="1"/>
@@ -10196,9 +10184,7 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B75" s="70"/>
-      <c r="C75" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -10211,7 +10197,7 @@
     <row r="76" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B76" s="70"/>
       <c r="C76" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -10222,63 +10208,95 @@
       <c r="J76" s="1"/>
       <c r="K76" s="72"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:11" ht="21" x14ac:dyDescent="0.15">
       <c r="B77" s="70"/>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="1"/>
+      <c r="D77" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="G77" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="H77" s="65" t="s">
+        <v>143</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="72"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B78" s="70"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="C78" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E78" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="H78" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="72"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B79" s="70"/>
-      <c r="C79" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="C79" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E79" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G79" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="H79" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="72"/>
     </row>
-    <row r="80" spans="2:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B80" s="70"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="E80" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="F80" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="G80" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="H80" s="65" t="s">
+      <c r="C80" s="66" t="s">
         <v>146</v>
+      </c>
+      <c r="D80" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E80" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G80" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="H80" s="83" t="s">
+        <v>148</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -10289,108 +10307,36 @@
       <c r="C81" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="D81" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="E81" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="F81" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="G81" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="H81" s="64" t="s">
-        <v>57</v>
+      <c r="D81" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="H81" s="67" t="s">
+        <v>58</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="72"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B82" s="70"/>
-      <c r="C82" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="D82" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="F82" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="G82" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="H82" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="72"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B83" s="70"/>
-      <c r="C83" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="E83" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="F83" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="G83" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="H83" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="72"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B84" s="70"/>
-      <c r="C84" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E84" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F84" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="G84" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="H84" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="72"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B85" s="75"/>
-      <c r="C85" s="76"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="76"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="76"/>
-      <c r="K85" s="77"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="76"/>
+      <c r="K82" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10421,18 +10367,18 @@
   <sheetData>
     <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="59"/>
     </row>
@@ -10440,10 +10386,10 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
@@ -10451,7 +10397,7 @@
         <v>89</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>77</v>
@@ -10503,18 +10449,18 @@
   <sheetData>
     <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="59"/>
@@ -10523,13 +10469,13 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
@@ -10537,7 +10483,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>78</v>
@@ -10595,18 +10541,18 @@
   <sheetData>
     <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -10616,16 +10562,16 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -10633,7 +10579,7 @@
         <v>91</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>79</v>
@@ -10697,18 +10643,18 @@
   <sheetData>
     <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -10720,22 +10666,22 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="H6" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>197</v>
-      </c>
       <c r="I6" s="85" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -10743,7 +10689,7 @@
         <v>92</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D7" s="80">
         <v>0</v>
@@ -10815,18 +10761,18 @@
   <sheetData>
     <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -10838,22 +10784,22 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="H6" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>206</v>
-      </c>
       <c r="I6" s="53" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -10861,7 +10807,7 @@
         <v>93</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>83</v>
@@ -10933,18 +10879,18 @@
   <sheetData>
     <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -10956,22 +10902,22 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F6" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="53" t="s">
         <v>210</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -10979,7 +10925,7 @@
         <v>94</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>84</v>
@@ -11052,7 +10998,7 @@
   <sheetData>
     <row r="1" spans="2:13" s="57" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
@@ -11061,27 +11007,27 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="87" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="40"/>
       <c r="L5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M5" s="40"/>
     </row>
@@ -11108,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
@@ -11118,7 +11064,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>52</v>
@@ -11206,7 +11152,7 @@
   <sheetData>
     <row r="1" spans="2:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
@@ -11215,26 +11161,26 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="87" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="59"/>
       <c r="K5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L5" s="40"/>
     </row>
@@ -11258,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K6" s="44"/>
       <c r="L6" s="54"/>
@@ -11268,7 +11214,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="6"/>
@@ -11340,7 +11286,7 @@
   <sheetData>
     <row r="1" spans="2:13" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
@@ -11349,27 +11295,27 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="87" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="59"/>
       <c r="L5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M5" s="40"/>
     </row>
@@ -11396,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
@@ -11406,7 +11352,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -11480,7 +11426,7 @@
   <sheetData>
     <row r="1" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
@@ -11488,25 +11434,25 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E5" s="88" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="87" t="s">
         <v>237</v>
-      </c>
-      <c r="F5" s="87" t="s">
-        <v>240</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="52"/>
       <c r="I5" s="59"/>
       <c r="J5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K5" s="40"/>
     </row>
@@ -11527,7 +11473,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="54"/>
@@ -11537,7 +11483,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -11606,7 +11552,7 @@
   <sheetData>
     <row r="1" spans="2:14" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
@@ -11615,28 +11561,28 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="87" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="59"/>
       <c r="M5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N5" s="40"/>
     </row>
@@ -11666,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="89" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M6" s="44"/>
       <c r="N6" s="54"/>
@@ -11676,7 +11622,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="9"/>
@@ -11754,29 +11700,29 @@
   <sheetData>
     <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E5" s="88" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="87" t="s">
         <v>237</v>
-      </c>
-      <c r="F5" s="87" t="s">
-        <v>240</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="59"/>
       <c r="I5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J5" s="40"/>
     </row>
@@ -11792,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="54"/>
@@ -11802,7 +11748,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="63"/>
@@ -11869,18 +11815,18 @@
   <sheetData>
     <row r="1" spans="2:10" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -11892,22 +11838,22 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>168</v>
-      </c>
       <c r="I6" s="53" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -11915,7 +11861,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>74</v>
@@ -11985,18 +11931,18 @@
   <sheetData>
     <row r="1" spans="2:7" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="59"/>
@@ -12005,13 +11951,13 @@
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="78" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
@@ -12019,7 +11965,7 @@
         <v>88</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>82</v>
